--- a/report/table.xlsx
+++ b/report/table.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Analysis\2022_OCA_midterm\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61C9C1BF-DA83-466A-9ED3-F5B164204816}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A48714-743C-45C2-8CE1-81F08D9BF78D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7605" xr2:uid="{9B8C69D9-9F58-4ACB-8774-7CB00936FCA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7605" activeTab="1" xr2:uid="{9B8C69D9-9F58-4ACB-8774-7CB00936FCA3}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表0" sheetId="11" r:id="rId1"/>
+    <sheet name="工作表12" sheetId="12" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId3"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId4"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId5"/>
+    <sheet name="工作表4" sheetId="4" r:id="rId6"/>
+    <sheet name="工作表5" sheetId="5" r:id="rId7"/>
+    <sheet name="工作表6" sheetId="6" r:id="rId8"/>
+    <sheet name="工作表7" sheetId="7" r:id="rId9"/>
+    <sheet name="工作表8" sheetId="8" r:id="rId10"/>
+    <sheet name="工作表9" sheetId="9" r:id="rId11"/>
+    <sheet name="工作表10" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="142">
   <si>
     <t>Df</t>
   </si>
@@ -75,9 +83,6 @@
     <t>PERMDISP</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
     <t>p.adjust</t>
   </si>
   <si>
@@ -106,6 +111,357 @@
   </si>
   <si>
     <t>生物密度組成的排列多變量散布分析(PERMDISP)與排列變異數分析(PERMANOVA)</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>七美</t>
+  </si>
+  <si>
+    <t>小門嶼</t>
+  </si>
+  <si>
+    <t>北鐵砧</t>
+  </si>
+  <si>
+    <t>四角嶼</t>
+  </si>
+  <si>
+    <t>目斗嶼</t>
+  </si>
+  <si>
+    <t>西吉嶼</t>
+  </si>
+  <si>
+    <t>西嶼坪</t>
+  </si>
+  <si>
+    <t>姑婆嶼</t>
+  </si>
+  <si>
+    <t>東吉嶼</t>
+  </si>
+  <si>
+    <t>東嶼坪</t>
+  </si>
+  <si>
+    <t>花嶼</t>
+  </si>
+  <si>
+    <t>虎井嶼</t>
+  </si>
+  <si>
+    <t>青灣</t>
+  </si>
+  <si>
+    <t>青灣內灣</t>
+  </si>
+  <si>
+    <t>南鐵砧</t>
+  </si>
+  <si>
+    <t>桶盤嶼</t>
+  </si>
+  <si>
+    <t>澎澎灘</t>
+  </si>
+  <si>
+    <t>貓嶼</t>
+  </si>
+  <si>
+    <t>頭巾嶼</t>
+  </si>
+  <si>
+    <t>雞籠嶼</t>
+  </si>
+  <si>
+    <t>懷恩堂</t>
+  </si>
+  <si>
+    <t>鯨魚洞</t>
+  </si>
+  <si>
+    <t>Annelida</t>
+  </si>
+  <si>
+    <t>Oligochaeta</t>
+  </si>
+  <si>
+    <t>Polychaeta</t>
+  </si>
+  <si>
+    <t>Sipuncula</t>
+  </si>
+  <si>
+    <t>Arthopoda</t>
+  </si>
+  <si>
+    <t>Acari</t>
+  </si>
+  <si>
+    <t>Amphipoda</t>
+  </si>
+  <si>
+    <t>Calanoida</t>
+  </si>
+  <si>
+    <t>Cirripedia</t>
+  </si>
+  <si>
+    <t>Cumacea</t>
+  </si>
+  <si>
+    <t>Cyclopoida</t>
+  </si>
+  <si>
+    <t>Decapoda</t>
+  </si>
+  <si>
+    <t>Harpacticoida</t>
+  </si>
+  <si>
+    <t>Isopoda</t>
+  </si>
+  <si>
+    <t>Mysida</t>
+  </si>
+  <si>
+    <t>Ostracoda</t>
+  </si>
+  <si>
+    <t>Tanaidacea</t>
+  </si>
+  <si>
+    <t>Bryozoa</t>
+  </si>
+  <si>
+    <t>Chaetognatha</t>
+  </si>
+  <si>
+    <t>Chordata</t>
+  </si>
+  <si>
+    <t>Ascidiacea</t>
+  </si>
+  <si>
+    <t>Cnidaria</t>
+  </si>
+  <si>
+    <t>Actiniaria</t>
+  </si>
+  <si>
+    <t>Hydrozoa</t>
+  </si>
+  <si>
+    <t>Echinodermata</t>
+  </si>
+  <si>
+    <t>Echinoidea</t>
+  </si>
+  <si>
+    <t>Holothuroidea</t>
+  </si>
+  <si>
+    <t>Ophiuroidea</t>
+  </si>
+  <si>
+    <t>Mollusca</t>
+  </si>
+  <si>
+    <t>Bivalvia</t>
+  </si>
+  <si>
+    <t>Gastropoda</t>
+  </si>
+  <si>
+    <t>Polyplacophora</t>
+  </si>
+  <si>
+    <t>Scaphopoda</t>
+  </si>
+  <si>
+    <t>Nematoda</t>
+  </si>
+  <si>
+    <t>Nemertea</t>
+  </si>
+  <si>
+    <t>Platyhelminthes</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Total density</t>
+  </si>
+  <si>
+    <t>澎湖生物密度(個數每平方公尺)。</t>
+  </si>
+  <si>
+    <t>82.5</t>
+  </si>
+  <si>
+    <t>小香蘭</t>
+  </si>
+  <si>
+    <t>卯澳</t>
+  </si>
+  <si>
+    <t>外木山</t>
+  </si>
+  <si>
+    <t>協和</t>
+  </si>
+  <si>
+    <t>和平島</t>
+  </si>
+  <si>
+    <t>花瓶嶼</t>
+  </si>
+  <si>
+    <t>桂安漁港</t>
+  </si>
+  <si>
+    <t>馬崗</t>
+  </si>
+  <si>
+    <t>基隆嶼</t>
+  </si>
+  <si>
+    <t>深澳</t>
+  </si>
+  <si>
+    <t>彭佳嶼</t>
+  </si>
+  <si>
+    <t>鼻頭</t>
+  </si>
+  <si>
+    <t>潮境</t>
+  </si>
+  <si>
+    <t>蝙蝠洞</t>
+  </si>
+  <si>
+    <t>龍洞</t>
+  </si>
+  <si>
+    <t>Hirudinea</t>
+  </si>
+  <si>
+    <t>Pycnogonida</t>
+  </si>
+  <si>
+    <t>台灣東北角生物密度(個數每平方公尺)。</t>
+  </si>
+  <si>
+    <t>大潭</t>
+  </si>
+  <si>
+    <t>觀新</t>
+  </si>
+  <si>
+    <t>大福</t>
+  </si>
+  <si>
+    <t>中澳沙灘</t>
+  </si>
+  <si>
+    <t>杉福</t>
+  </si>
+  <si>
+    <t>厚石</t>
+  </si>
+  <si>
+    <t>美人洞</t>
+  </si>
+  <si>
+    <t>烏鬼洞</t>
+  </si>
+  <si>
+    <t>加母子</t>
+  </si>
+  <si>
+    <t>石雨傘</t>
+  </si>
+  <si>
+    <t>烏石鼻</t>
+  </si>
+  <si>
+    <t>基翬</t>
+  </si>
+  <si>
+    <t>新社</t>
+  </si>
+  <si>
+    <t>磯崎</t>
+  </si>
+  <si>
+    <t>桃園、琉球、東台灣生物密度(個數每平方公尺)。</t>
+  </si>
+  <si>
+    <t>Total biomass</t>
+  </si>
+  <si>
+    <t>桃園、琉球、東台灣生物量(公克濕重每平方公尺)。</t>
+  </si>
+  <si>
+    <t>台灣東北角生物量(公克濕重每平方公尺)。</t>
+  </si>
+  <si>
+    <t>澎湖生物量(公克濕重每平方公尺)。</t>
+  </si>
+  <si>
+    <t>chi.squared</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>p.value</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>P.unadj</t>
+  </si>
+  <si>
+    <t>P.adj</t>
+  </si>
+  <si>
+    <t>East - Liuqiu</t>
+  </si>
+  <si>
+    <t>East - North</t>
+  </si>
+  <si>
+    <t>Liuqiu - North</t>
+  </si>
+  <si>
+    <t>East - Penghu</t>
+  </si>
+  <si>
+    <t>Liuqiu - Penghu</t>
+  </si>
+  <si>
+    <t>North - Penghu</t>
+  </si>
+  <si>
+    <t>總生物量的K-W檢定(Kruskal-Wallis test)與鄧恩多重比較(Dunn's test)</t>
+  </si>
+  <si>
+    <t>總生物密度的K-W檢定(Kruskal-Wallis test)與鄧恩多重比較(Dunn's test)</t>
   </si>
 </sst>
 </file>
@@ -480,155 +836,2436 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEB1B91-8CC9-4BD3-8321-8DD1829250FB}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83919AA2-2607-478E-A207-07F3CE69F559}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>6</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>8.3549286765158524</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9.5965805270444016E-3</v>
+        <v>3.9218597350113099E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7">
+        <v>-0.78234688965262422</v>
+      </c>
+      <c r="C7">
+        <v>0.43401073718844541</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8">
+        <v>-1.94026879026615</v>
+      </c>
+      <c r="C8">
+        <v>5.2347032224885078E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.31408219334931048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9">
+        <v>-1.082402362398293</v>
+      </c>
+      <c r="C9">
+        <v>0.27907377902957847</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10">
+        <v>-2.6129194494022179</v>
+      </c>
+      <c r="C10">
+        <v>8.9772457733713323E-3</v>
+      </c>
+      <c r="D10">
+        <v>5.386347464022799E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11">
+        <v>-1.770173021503098</v>
+      </c>
+      <c r="C11">
+        <v>7.6698322114434933E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.46018993268660963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12">
+        <v>-0.87349505070366129</v>
+      </c>
+      <c r="C12">
+        <v>0.38239330273771999</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C535A7-235D-472F-9C7E-8CE41B354BCE}">
+  <dimension ref="A1:X34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>0.13013212214170719</v>
+      </c>
+      <c r="G3">
+        <v>1.969378004498681E-2</v>
+      </c>
+      <c r="I3">
+        <v>8.3173397723327602E-2</v>
+      </c>
+      <c r="J3">
+        <v>3.2078979495500717E-2</v>
+      </c>
+      <c r="Q3">
+        <v>0.31604778800991579</v>
+      </c>
+      <c r="R3">
+        <v>4.0350367114395193E-2</v>
+      </c>
+      <c r="U3">
+        <v>0.50825269900545378</v>
+      </c>
+      <c r="W3">
+        <v>0.34698252241483962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>1.3301341131108739</v>
       </c>
       <c r="D4">
-        <v>3.1988601756814672E-3</v>
+        <v>5.4259208681056252</v>
       </c>
       <c r="E4">
-        <v>0.42556503735965839</v>
+        <v>3.046272190819757</v>
       </c>
       <c r="F4">
-        <v>9999</v>
+        <v>131.47577607534109</v>
       </c>
       <c r="G4">
-        <v>0.7298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>2.2488765072926991</v>
+      </c>
+      <c r="H4">
+        <v>47.280378146237027</v>
+      </c>
+      <c r="I4">
+        <v>2.0671904453887811</v>
+      </c>
+      <c r="J4">
+        <v>1.981841979069374</v>
+      </c>
+      <c r="K4">
+        <v>4.1196324377216493</v>
+      </c>
+      <c r="L4">
+        <v>10.08694156865416</v>
+      </c>
+      <c r="M4">
+        <v>0.96778385740650519</v>
+      </c>
+      <c r="N4">
+        <v>7.6000812270314899</v>
+      </c>
+      <c r="O4">
+        <v>0.40657687336331783</v>
+      </c>
+      <c r="P4">
+        <v>22.58930138241708</v>
+      </c>
+      <c r="Q4">
+        <v>18.56250542181386</v>
+      </c>
+      <c r="R4">
+        <v>3.0452710903341371</v>
+      </c>
+      <c r="S4">
+        <v>13.594632067399591</v>
+      </c>
+      <c r="T4">
+        <v>4.063748601596771</v>
+      </c>
+      <c r="U4">
+        <v>9.335814548348166</v>
+      </c>
+      <c r="V4">
+        <v>1.8426594708981039</v>
+      </c>
+      <c r="W4">
+        <v>2.9794938649838811</v>
+      </c>
+      <c r="X4">
+        <v>1.137775319132371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <v>0.8500941230486686</v>
+      </c>
+      <c r="N5">
+        <v>3.7191942148760342</v>
+      </c>
+      <c r="U5">
+        <v>7.3089416896235077E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>4.7340472036285202E-3</v>
+      </c>
+      <c r="U6">
+        <v>7.3162547692440802E-3</v>
+      </c>
+      <c r="W6">
+        <v>3.294682699349994E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>0.35605693733326238</v>
+      </c>
+      <c r="D7">
+        <v>2.3781168356210472E-3</v>
+      </c>
+      <c r="E7">
+        <v>2.626663074343942E-2</v>
+      </c>
+      <c r="F7">
+        <v>17.44780558339507</v>
+      </c>
+      <c r="G7">
+        <v>1.0569408158315771E-2</v>
+      </c>
+      <c r="H7">
+        <v>3.4589531993994371</v>
+      </c>
+      <c r="I7">
+        <v>0.29898213327835732</v>
+      </c>
+      <c r="J7">
+        <v>1.2842739220867261</v>
+      </c>
+      <c r="K7">
+        <v>5.8216630430008198</v>
+      </c>
+      <c r="L7">
+        <v>0.11560290173157869</v>
+      </c>
+      <c r="N7">
+        <v>1.698536920441839</v>
+      </c>
+      <c r="O7">
+        <v>1.4066561082698501</v>
+      </c>
+      <c r="P7">
+        <v>9.2482321385262967E-2</v>
+      </c>
+      <c r="Q7">
+        <v>6.267756902771604E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.4982177351163219</v>
+      </c>
+      <c r="T7">
+        <v>1.5412839446863971</v>
+      </c>
+      <c r="U7">
+        <v>0.8251735125600087</v>
+      </c>
+      <c r="V7">
+        <v>10.21239336836816</v>
+      </c>
+      <c r="W7">
+        <v>0.14489997997041021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>3.2642715029078673E-2</v>
+      </c>
+      <c r="E8">
+        <v>6.3353348829201066E-3</v>
+      </c>
+      <c r="W8">
+        <v>6.4853076216712574E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9">
+        <v>2.0752984389348019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>6.3944919357810423E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.1675911781102945</v>
+      </c>
+      <c r="H10">
+        <v>2.6423520395789421E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.42287673571013468</v>
+      </c>
+      <c r="M10">
+        <v>0.139466643589026</v>
+      </c>
+      <c r="N10">
+        <v>0.4925839642782569</v>
+      </c>
+      <c r="Q10">
+        <v>2.2019600329824519E-2</v>
+      </c>
+      <c r="R10">
+        <v>5.5968319138331467E-2</v>
+      </c>
+      <c r="S10">
+        <v>6.1533773121694599E-2</v>
+      </c>
+      <c r="U10">
+        <v>4.548148448125252E-2</v>
+      </c>
+      <c r="V10">
+        <v>0.1122008734806208</v>
+      </c>
+      <c r="W10">
+        <v>0.18126534991511531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>4.467130388735841E-3</v>
+      </c>
+      <c r="G11">
+        <v>5.9448653198653171E-3</v>
+      </c>
+      <c r="L11">
+        <v>3.9439685124932674E-3</v>
+      </c>
+      <c r="M11">
+        <v>8.9632355754514833E-3</v>
+      </c>
+      <c r="W11">
+        <v>1.226128472222222E-3</v>
+      </c>
+      <c r="X11">
+        <v>4.4489210284664842E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>2.0737419651056008</v>
+      </c>
+      <c r="H12">
+        <v>9.275286960514233</v>
+      </c>
+      <c r="I12">
+        <v>1.452708907254362</v>
+      </c>
+      <c r="J12">
+        <v>0.89652892561983455</v>
+      </c>
+      <c r="K12">
+        <v>1.369696969696969</v>
+      </c>
+      <c r="M12">
+        <v>8.4919266528925608</v>
+      </c>
+      <c r="T12">
+        <v>6.0414531680440762</v>
+      </c>
+      <c r="U12">
+        <v>10.250936639118461</v>
+      </c>
+      <c r="W12">
+        <v>0.6485307621671258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13">
+        <v>1.184929742748682E-2</v>
+      </c>
+      <c r="E13">
+        <v>3.2846706623250253E-2</v>
+      </c>
+      <c r="G13">
+        <v>5.1608438273026219E-2</v>
+      </c>
+      <c r="H13">
+        <v>8.4530799043937427E-3</v>
+      </c>
+      <c r="I13">
+        <v>4.2613087482037737E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.14193343136729469</v>
+      </c>
+      <c r="N13">
+        <v>1.859432916740737E-3</v>
+      </c>
+      <c r="O13">
+        <v>6.275586093999988E-3</v>
+      </c>
+      <c r="Q13">
+        <v>7.8104592767125822E-2</v>
+      </c>
+      <c r="R13">
+        <v>8.2573501236841952E-4</v>
+      </c>
+      <c r="S13">
+        <v>4.6002615022391717E-2</v>
+      </c>
+      <c r="U13">
+        <v>0.10206084752873661</v>
+      </c>
+      <c r="V13">
+        <v>7.3696849853881422E-3</v>
+      </c>
+      <c r="W13">
+        <v>1.13321808759911E-2</v>
+      </c>
+      <c r="X13">
+        <v>1.8166170272105231E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>4.5112105685719731E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.12154819382063139</v>
+      </c>
+      <c r="E14">
+        <v>5.6405958694886731E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.76460461080026665</v>
+      </c>
+      <c r="G14">
+        <v>0.32221666505638002</v>
+      </c>
+      <c r="H14">
+        <v>0.17158236829257709</v>
+      </c>
+      <c r="I14">
+        <v>4.8654887350660911E-2</v>
+      </c>
+      <c r="J14">
+        <v>2.0055451980404169E-2</v>
+      </c>
+      <c r="K14">
+        <v>0.1111786135353087</v>
+      </c>
+      <c r="L14">
+        <v>0.66544884049039166</v>
+      </c>
+      <c r="M14">
+        <v>0.14208622483878469</v>
+      </c>
+      <c r="N14">
+        <v>7.3717080361684451E-2</v>
+      </c>
+      <c r="R14">
+        <v>2.0777144381214179E-2</v>
+      </c>
+      <c r="S14">
+        <v>0.1038677851066355</v>
+      </c>
+      <c r="T14">
+        <v>0.55301579402594581</v>
+      </c>
+      <c r="U14">
+        <v>3.156929455911632E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>0.33542011019283741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>5.9657290306087372E-2</v>
+      </c>
+      <c r="E16">
+        <v>4.4125214723437396E-3</v>
+      </c>
+      <c r="F16">
+        <v>3.4231505525742709</v>
+      </c>
+      <c r="I16">
+        <v>2.067846904723615E-2</v>
+      </c>
+      <c r="L16">
+        <v>8.090568853998531E-3</v>
+      </c>
+      <c r="N16">
+        <v>0.30320989654168362</v>
+      </c>
+      <c r="Q16">
+        <v>4.8769974168009749E-3</v>
+      </c>
+      <c r="R16">
+        <v>2.972646044526309E-2</v>
+      </c>
+      <c r="U16">
+        <v>5.059071987028213E-2</v>
+      </c>
+      <c r="V16">
+        <v>2.5671771240529209</v>
+      </c>
+      <c r="W16">
+        <v>4.4589690667894637E-2</v>
+      </c>
+      <c r="X16">
+        <v>8.0112810899984066E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17">
+        <v>2.2592109938399961E-2</v>
+      </c>
+      <c r="J17">
+        <v>7.5245103002072201E-3</v>
+      </c>
+      <c r="K17">
+        <v>3.5605693733326241E-2</v>
+      </c>
+      <c r="N17">
+        <v>4.1286750618420957E-2</v>
+      </c>
+      <c r="U17">
+        <v>1.8925846483484179E-2</v>
+      </c>
+      <c r="V17">
+        <v>1.3676814156860611</v>
+      </c>
+      <c r="W17">
+        <v>19.621664477681598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18">
+        <v>0.31231485068487908</v>
+      </c>
+      <c r="D18">
+        <v>0.25214876033057848</v>
+      </c>
+      <c r="E18">
+        <v>16.355775582529841</v>
+      </c>
+      <c r="H18">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="T18">
+        <v>3.5971839608203243E-2</v>
+      </c>
+      <c r="U18">
+        <v>0.45474977043158848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19">
+        <v>3.891184573002756E-2</v>
+      </c>
+      <c r="L19">
+        <v>7.1038138115158314E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V20">
+        <v>3.3204775022956841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21">
+        <v>2.4989187327823692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <v>3.8148957571420969E-3</v>
+      </c>
+      <c r="L22">
+        <v>1.282946576853E-2</v>
+      </c>
+      <c r="W22">
+        <v>1.602256217999681E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23">
+        <v>2.1790633608815429E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24">
+        <v>10.733702938475661</v>
+      </c>
+      <c r="O24">
+        <v>26.148760330578519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>0.16939623507805329</v>
+      </c>
+      <c r="H25">
+        <v>0.35526515151515148</v>
+      </c>
+      <c r="I25">
+        <v>6.4204545454545459E-2</v>
+      </c>
+      <c r="K25">
+        <v>0.23288739669421479</v>
+      </c>
+      <c r="O25">
+        <v>8.3790174471992662E-2</v>
+      </c>
+      <c r="R25">
+        <v>6.048813992194674</v>
+      </c>
+      <c r="T25">
+        <v>0.91806014692378313</v>
+      </c>
+      <c r="U25">
+        <v>7.8407369146005518E-2</v>
+      </c>
+      <c r="V25">
+        <v>6.4336683597337014</v>
+      </c>
+      <c r="X25">
+        <v>0.36693870523415989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26">
+        <v>41.805380329326837</v>
+      </c>
+      <c r="H26">
+        <v>5.8263862472715658E-2</v>
+      </c>
+      <c r="J26">
+        <v>7.5245103002072239E-2</v>
+      </c>
+      <c r="L26">
+        <v>0.1932963090453233</v>
+      </c>
+      <c r="N26">
+        <v>1.534777152788934</v>
+      </c>
+      <c r="O26">
+        <v>72.683425273201664</v>
+      </c>
+      <c r="P26">
+        <v>54.241426477564893</v>
+      </c>
+      <c r="R26">
+        <v>1.341406527592498</v>
+      </c>
+      <c r="S26">
+        <v>8.6038780789747236</v>
+      </c>
+      <c r="U26">
+        <v>0.73253430152239596</v>
+      </c>
+      <c r="V26">
+        <v>4.515746606239917</v>
+      </c>
+      <c r="W26">
+        <v>1.995537289690511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="E27">
+        <v>0.13266777624732171</v>
+      </c>
+      <c r="J27">
+        <v>0.74918273645546341</v>
+      </c>
+      <c r="K27">
+        <v>0.50131427915518811</v>
+      </c>
+      <c r="R27">
+        <v>8.7854300581573327E-2</v>
+      </c>
+      <c r="V27">
+        <v>0.38615683348637903</v>
+      </c>
+      <c r="X27">
+        <v>1.214222528313438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28">
+        <v>1.5252316560459549</v>
+      </c>
+      <c r="E28">
+        <v>1.0696241056215561</v>
+      </c>
+      <c r="F28">
+        <v>9.7018248955205166</v>
+      </c>
+      <c r="G28">
+        <v>0.1395161876897682</v>
+      </c>
+      <c r="K28">
+        <v>0.35169705646795713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="U29">
+        <v>3.4588307315580051E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30">
+        <v>1.2662371169665589E-2</v>
+      </c>
+      <c r="D30">
+        <v>7.7024561953726181E-3</v>
+      </c>
+      <c r="E30">
+        <v>0.40924260276389463</v>
+      </c>
+      <c r="F30">
+        <v>1.576312847222195E-3</v>
+      </c>
+      <c r="G30">
+        <v>2.5656619003052251E-2</v>
+      </c>
+      <c r="H30">
+        <v>1.6181722603630828E-2</v>
+      </c>
+      <c r="I30">
+        <v>0.1956029998023745</v>
+      </c>
+      <c r="J30">
+        <v>2.1087771442504451E-2</v>
+      </c>
+      <c r="K30">
+        <v>7.6149282840615616E-3</v>
+      </c>
+      <c r="L30">
+        <v>1.181626802699208E-3</v>
+      </c>
+      <c r="N30">
+        <v>0.1115713422820246</v>
+      </c>
+      <c r="O30">
+        <v>1.970998891745181E-3</v>
+      </c>
+      <c r="P30">
+        <v>7.5046431158096363E-3</v>
+      </c>
+      <c r="Q30">
+        <v>0.40840824801459469</v>
+      </c>
+      <c r="R30">
+        <v>2.7138685361326648E-2</v>
+      </c>
+      <c r="S30">
+        <v>3.3917065633032829E-3</v>
+      </c>
+      <c r="T30">
+        <v>5.2658979642511927E-2</v>
+      </c>
+      <c r="U30">
+        <v>0.1103267440097989</v>
+      </c>
+      <c r="V30">
+        <v>4.5777972894793559E-2</v>
+      </c>
+      <c r="W30">
+        <v>0.1403777838576393</v>
+      </c>
+      <c r="X30">
+        <v>4.4836172569086619E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>4.2803030303030322E-2</v>
+      </c>
+      <c r="D31">
+        <v>4.129843893480257</v>
+      </c>
+      <c r="E31">
+        <v>3.2831869834710738E-2</v>
+      </c>
+      <c r="F31">
+        <v>2.5098140495867768E-2</v>
+      </c>
+      <c r="G31">
+        <v>2.8478282828282828</v>
+      </c>
+      <c r="H31">
+        <v>0.1978018824609733</v>
+      </c>
+      <c r="I31">
+        <v>1.659330808080808</v>
+      </c>
+      <c r="K31">
+        <v>0.2075298438934802</v>
+      </c>
+      <c r="M31">
+        <v>0.16861799816345269</v>
+      </c>
+      <c r="N31">
+        <v>0.4572719846295446</v>
+      </c>
+      <c r="V31">
+        <v>0.59561065197428842</v>
+      </c>
+      <c r="W31">
+        <v>0.51432704889807157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32">
+        <v>1.471459792040523</v>
+      </c>
+      <c r="F32">
+        <v>6.801414149876198</v>
+      </c>
+      <c r="G32">
+        <v>0.7246485321542776</v>
+      </c>
+      <c r="I32">
+        <v>9.0740020509165631E-2</v>
+      </c>
+      <c r="U32">
+        <v>2.7641644686035312</v>
+      </c>
+      <c r="X32">
+        <v>1.9768199412976499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="N33">
+        <v>0.61448049518756598</v>
+      </c>
+      <c r="Q33">
+        <v>0.149687801183047</v>
+      </c>
+      <c r="U33">
+        <v>1.6848829201101929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34">
+        <v>2.1587406985935189</v>
+      </c>
+      <c r="D34">
+        <v>13.86337590282872</v>
+      </c>
+      <c r="E34">
+        <v>21.31201457996799</v>
+      </c>
+      <c r="F34">
+        <v>217.04079154498149</v>
+      </c>
+      <c r="G34">
+        <v>6.4191513957590542</v>
+      </c>
+      <c r="H34">
+        <v>61.498158305182521</v>
+      </c>
+      <c r="I34">
+        <v>8.1380899860364853</v>
+      </c>
+      <c r="J34">
+        <v>5.4906961151622218</v>
+      </c>
+      <c r="K34">
+        <v>12.758820262182979</v>
+      </c>
+      <c r="L34">
+        <v>11.30030681934163</v>
+      </c>
+      <c r="M34">
+        <v>9.9188446124657812</v>
+      </c>
+      <c r="N34">
+        <v>27.382273400429881</v>
+      </c>
+      <c r="O34">
+        <v>100.73745534487109</v>
+      </c>
+      <c r="P34">
+        <v>76.930714824483033</v>
+      </c>
+      <c r="Q34">
+        <v>19.604328018562889</v>
+      </c>
+      <c r="R34">
+        <v>10.69813262215578</v>
+      </c>
+      <c r="S34">
+        <v>23.911523761304661</v>
+      </c>
+      <c r="T34">
+        <v>13.20619247452769</v>
+      </c>
+      <c r="U34">
+        <v>27.07773566817551</v>
+      </c>
+      <c r="V34">
+        <v>31.406919864096022</v>
+      </c>
+      <c r="W34">
+        <v>26.711432186261948</v>
+      </c>
+      <c r="X34">
+        <v>4.8670113047585648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FF8FD3-A310-4FE7-92A6-EA7F3B4DBF98}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3">
+        <v>1.018606067882373E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>6.382372053247348</v>
+      </c>
+      <c r="E4">
+        <v>0.97739683313823811</v>
+      </c>
+      <c r="F4">
+        <v>6.5172634407311067E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.4163237883595161E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.3253509716666611</v>
+      </c>
+      <c r="M4">
+        <v>7.38516751687005E-3</v>
+      </c>
+      <c r="P4">
+        <v>0.49853710084992708</v>
+      </c>
+      <c r="Q4">
+        <v>7.7681021288559041E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>0.34576987102676032</v>
+        <v>18.915459975631101</v>
       </c>
       <c r="D5">
-        <v>7.5167363266687012E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.49862462876123798</v>
+      </c>
+      <c r="E5">
+        <v>4.6130710377377078</v>
+      </c>
+      <c r="F5">
+        <v>2.0967597848994339</v>
+      </c>
+      <c r="G5">
+        <v>7.9951714127746021</v>
+      </c>
+      <c r="H5">
+        <v>78.098325193719702</v>
+      </c>
+      <c r="I5">
+        <v>7.6641586819559144</v>
+      </c>
+      <c r="J5">
+        <v>11.05756555598078</v>
+      </c>
+      <c r="K5">
+        <v>7.0803069913300334</v>
+      </c>
+      <c r="L5">
+        <v>1.4403593085346791</v>
+      </c>
+      <c r="M5">
+        <v>18.935288439249611</v>
+      </c>
+      <c r="N5">
+        <v>20.924072366374961</v>
+      </c>
+      <c r="O5">
+        <v>24.950181230860739</v>
+      </c>
+      <c r="P5">
+        <v>7.3889944316590377</v>
+      </c>
+      <c r="Q5">
+        <v>2.6714831450802872</v>
+      </c>
+      <c r="R5">
+        <v>8.7539563464245731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>1.2700826446280991</v>
+      </c>
+      <c r="H6">
+        <v>0.15302083333333341</v>
+      </c>
+      <c r="J6">
+        <v>32.717810087406043</v>
+      </c>
+      <c r="L6">
+        <v>1.042318640955004</v>
+      </c>
+      <c r="P6">
+        <v>1.1312970615243341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>7.7425043434724836E-4</v>
+      </c>
+      <c r="L7">
+        <v>7.4130360735374825E-4</v>
+      </c>
+      <c r="M7">
+        <v>1.3178730797399981E-2</v>
+      </c>
+      <c r="R7">
+        <v>3.294682699349993E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>1.0870636290827771</v>
+      </c>
+      <c r="D8">
+        <v>1.1840957503861899E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.274765970851667</v>
+      </c>
+      <c r="F8">
+        <v>3.8644398578842019E-3</v>
+      </c>
+      <c r="H8">
+        <v>7.3655563103263016E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.734043525973681E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.292737705963503</v>
+      </c>
+      <c r="K8">
+        <v>0.1242070605604577</v>
+      </c>
+      <c r="M8">
+        <v>0.42923150979182079</v>
+      </c>
+      <c r="O8">
+        <v>1.044852055250503</v>
+      </c>
+      <c r="P8">
+        <v>8.5625087548550649</v>
+      </c>
+      <c r="Q8">
+        <v>0.20653284129358909</v>
+      </c>
+      <c r="R8">
+        <v>0.30038588279938361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1.0117658979776649</v>
-      </c>
-      <c r="D9">
-        <v>0.1486804700543396</v>
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9">
+        <v>5.4044230180593823E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10">
+        <v>1.7431065707580861E-2</v>
+      </c>
+      <c r="M10">
+        <v>6.1286157024793356E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>1.27125</v>
+      </c>
+      <c r="F11">
+        <v>3.805637360558447</v>
+      </c>
+      <c r="G11">
+        <v>0.19455922865013769</v>
+      </c>
+      <c r="L11">
+        <v>0.7284297520661156</v>
+      </c>
+      <c r="M11">
+        <v>2.5941230486685032</v>
+      </c>
+      <c r="O11">
+        <v>8.5299954086317697</v>
+      </c>
+      <c r="P11">
+        <v>14.6946694214876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12">
+        <v>3.4028023775319827E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.9757611706627604E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.21757668391352511</v>
+      </c>
+      <c r="G12">
+        <v>2.8637522397702241E-2</v>
+      </c>
+      <c r="I12">
+        <v>7.8024312974256677E-3</v>
+      </c>
+      <c r="J12">
+        <v>5.1195570766842009E-3</v>
+      </c>
+      <c r="K12">
+        <v>1.789780639308549E-2</v>
+      </c>
+      <c r="L12">
+        <v>4.8096380831670227E-2</v>
+      </c>
+      <c r="M12">
+        <v>0.117517574791508</v>
+      </c>
+      <c r="N12">
+        <v>7.7355888127438974E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.12756306173017051</v>
+      </c>
+      <c r="Q12">
+        <v>7.4316151113157743E-6</v>
+      </c>
+      <c r="R12">
+        <v>1.6336651135326449E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>0.93082176584998033</v>
+      </c>
+      <c r="F13">
+        <v>2.299286666440277E-2</v>
+      </c>
+      <c r="H13">
+        <v>3.5201496444771899E-2</v>
+      </c>
+      <c r="I13">
+        <v>2.5373185460056791E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.4888014811941681</v>
+      </c>
+      <c r="L13">
+        <v>0.77995956622276352</v>
+      </c>
+      <c r="N13">
+        <v>3.9503162991705179E-3</v>
+      </c>
+      <c r="P13">
+        <v>2.1158389294702478E-3</v>
+      </c>
+      <c r="R13">
+        <v>2.8867696032399939E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>0.20483389150564099</v>
+      </c>
+      <c r="H14">
+        <v>1.7835876267157859E-2</v>
+      </c>
+      <c r="I14">
+        <v>2.1403051520589429E-2</v>
+      </c>
+      <c r="K14">
+        <v>6.5937005075149199E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.3655592767042731E-2</v>
+      </c>
+      <c r="N14">
+        <v>6.2722831539505156E-2</v>
+      </c>
+      <c r="P14">
+        <v>2.576293238589468E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15">
+        <v>1.7023932506887052E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.1743250688705234</v>
+      </c>
+      <c r="J15">
+        <v>0.1374885215794307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16">
+        <v>1.953689039263681E-2</v>
+      </c>
+      <c r="O16">
+        <v>2.02139931027789E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17">
+        <v>2.386593204775023E-2</v>
+      </c>
+      <c r="P17">
+        <v>3.4445390351324712E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>5.188246097337007E-2</v>
+      </c>
+      <c r="J18">
+        <v>2.3865932047750231</v>
+      </c>
+      <c r="P18">
+        <v>0.65138429752066118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19">
+        <v>29.446585820170949</v>
+      </c>
+      <c r="F19">
+        <v>2.237050330445558</v>
+      </c>
+      <c r="G19">
+        <v>1.2592871806124579</v>
+      </c>
+      <c r="J19">
+        <v>0.6322708038705811</v>
+      </c>
+      <c r="K19">
+        <v>3.7175911432846029</v>
+      </c>
+      <c r="M19">
+        <v>0.74105279034374139</v>
+      </c>
+      <c r="P19">
+        <v>0.18579037778289431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20">
+        <v>9.1831955922865003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21">
+        <v>0.81747766224473506</v>
+      </c>
+      <c r="K21">
+        <v>9.7075472391562292E-2</v>
+      </c>
+      <c r="M21">
+        <v>3.1744247164861892</v>
+      </c>
+      <c r="O21">
+        <v>14.36144757031551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22">
+        <v>0.12785026949382811</v>
+      </c>
+      <c r="D22">
+        <v>9.0648828398737155E-3</v>
+      </c>
+      <c r="E22">
+        <v>0.14269967140745249</v>
+      </c>
+      <c r="F22">
+        <v>0.1759577492555055</v>
+      </c>
+      <c r="G22">
+        <v>0.1034785055238775</v>
+      </c>
+      <c r="H22">
+        <v>3.7199362307197302E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.575502403598944E-2</v>
+      </c>
+      <c r="J22">
+        <v>7.1043488014137573E-3</v>
+      </c>
+      <c r="K22">
+        <v>2.1400574315552319E-2</v>
+      </c>
+      <c r="L22">
+        <v>5.0645400042801172E-2</v>
+      </c>
+      <c r="M22">
+        <v>0.14304648252104099</v>
+      </c>
+      <c r="N22">
+        <v>7.0317735749516774E-2</v>
+      </c>
+      <c r="O22">
+        <v>1.733052643958838E-4</v>
+      </c>
+      <c r="P22">
+        <v>0.2013753845089761</v>
+      </c>
+      <c r="Q22">
+        <v>1.8710458666351699E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>0.85917355371900828</v>
+      </c>
+      <c r="E23">
+        <v>6.1398677112029389</v>
+      </c>
+      <c r="F23">
+        <v>5.4879964151192062E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.23058511248852159</v>
+      </c>
+      <c r="J23">
+        <v>42.822356519742868</v>
+      </c>
+      <c r="M23">
+        <v>1.1191208964646459E-2</v>
+      </c>
+      <c r="P23">
+        <v>3.9260431014692392</v>
+      </c>
+      <c r="Q23">
+        <v>1.839525080348944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24">
+        <v>7.6297915142841963E-3</v>
+      </c>
+      <c r="F24">
+        <v>0.20477983644510919</v>
+      </c>
+      <c r="G24">
+        <v>2.248063571173021E-3</v>
+      </c>
+      <c r="H24">
+        <v>0.57296101038219893</v>
+      </c>
+      <c r="I24">
+        <v>0.26254237072559328</v>
+      </c>
+      <c r="K24">
+        <v>1.189445767811117</v>
+      </c>
+      <c r="L24">
+        <v>1.582636754105808</v>
+      </c>
+      <c r="M24">
+        <v>0.1417188358352609</v>
+      </c>
+      <c r="N24">
+        <v>0.56787448270600926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>0.68069788797061526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26">
+        <v>27.783995927455049</v>
+      </c>
+      <c r="D26">
+        <v>1.4211360885479329</v>
+      </c>
+      <c r="E26">
+        <v>45.529184571529598</v>
+      </c>
+      <c r="F26">
+        <v>11.22894830995021</v>
+      </c>
+      <c r="G26">
+        <v>9.8481302639020676</v>
+      </c>
+      <c r="H26">
+        <v>79.005223268064512</v>
+      </c>
+      <c r="I26">
+        <v>8.8693981370964448</v>
+      </c>
+      <c r="J26">
+        <v>92.565278852098075</v>
+      </c>
+      <c r="K26">
+        <v>12.63921279282822</v>
+      </c>
+      <c r="L26">
+        <v>5.6731871063661954</v>
+      </c>
+      <c r="M26">
+        <v>26.343533197132992</v>
+      </c>
+      <c r="N26">
+        <v>21.749696443236989</v>
+      </c>
+      <c r="O26">
+        <v>58.090059155712197</v>
+      </c>
+      <c r="P26">
+        <v>37.407300515907288</v>
+      </c>
+      <c r="Q26">
+        <v>4.8139399782928427</v>
+      </c>
+      <c r="R26">
+        <v>9.0768603326618731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC90AE10-3F94-44D1-82C1-25AFDD381F37}">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>2.030647542416417E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.5208038457583109E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.36455375061053352</v>
+      </c>
+      <c r="P3">
+        <v>0.21039521681394241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>1.022435414002232</v>
+      </c>
+      <c r="D4">
+        <v>1.3509714291082671</v>
+      </c>
+      <c r="E4">
+        <v>2.3134923669308369</v>
+      </c>
+      <c r="F4">
+        <v>6.5880517038394082</v>
+      </c>
+      <c r="G4">
+        <v>0.1444210536632366</v>
+      </c>
+      <c r="H4">
+        <v>0.75851687942158075</v>
+      </c>
+      <c r="I4">
+        <v>4.4031158918111917</v>
+      </c>
+      <c r="J4">
+        <v>10.866153360154231</v>
+      </c>
+      <c r="K4">
+        <v>2.8754669423906951</v>
+      </c>
+      <c r="M4">
+        <v>3.6214785754000678</v>
+      </c>
+      <c r="N4">
+        <v>7.0007011664362526</v>
+      </c>
+      <c r="O4">
+        <v>0.38818628666451771</v>
+      </c>
+      <c r="P4">
+        <v>1.0141859083611651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>0.13677474744870499</v>
+      </c>
+      <c r="E5">
+        <v>3.7580117896233839E-3</v>
+      </c>
+      <c r="F5">
+        <v>9.257315223662349E-2</v>
+      </c>
+      <c r="G5">
+        <v>8.8089411119462988E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.210904843158588</v>
+      </c>
+      <c r="I5">
+        <v>6.4209154561768303E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.3446902143929449</v>
+      </c>
+      <c r="M5">
+        <v>2.6049187190182409E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.19024934684968381</v>
+      </c>
+      <c r="P5">
+        <v>0.13211760197894709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>2.0234159779614319E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>0.11560290173157869</v>
+      </c>
+      <c r="D7">
+        <v>9.4959526422368212E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.14945803723868389</v>
+      </c>
+      <c r="H7">
+        <v>0.1507131544574839</v>
+      </c>
+      <c r="J7">
+        <v>9.7915657766647166E-2</v>
+      </c>
+      <c r="M7">
+        <v>7.1343505068631446E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>0.37822314049586792</v>
+      </c>
+      <c r="H8">
+        <v>47.814876033057857</v>
+      </c>
+      <c r="L8">
+        <v>1.218719008264463</v>
+      </c>
+      <c r="N8">
+        <v>0.33619834710743812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
       </c>
       <c r="E9">
-        <v>2.6779218933757951</v>
+        <v>1.16118986114309E-3</v>
       </c>
       <c r="F9">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1.412677780847546E-2</v>
+      </c>
+      <c r="H9">
+        <v>6.6058800989473557E-4</v>
+      </c>
+      <c r="I9">
+        <v>9.0314766977795866E-4</v>
+      </c>
+      <c r="K9">
+        <v>1.682435087700654E-3</v>
+      </c>
+      <c r="L9">
+        <v>2.6010652889605218E-3</v>
+      </c>
+      <c r="M9">
+        <v>0.23505541067359731</v>
+      </c>
+      <c r="N9">
+        <v>8.866329695305904E-3</v>
+      </c>
+      <c r="P9">
+        <v>6.0381872779440666E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>46</v>
-      </c>
-      <c r="C10">
-        <v>5.7932024856162636</v>
-      </c>
-      <c r="D10">
-        <v>0.85131952994566029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>4.2019590441897937E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.19591838470293191</v>
+      </c>
+      <c r="P10">
+        <v>1.6712876650336809E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <v>6.8049683835939296</v>
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>8.1636291997803812E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.1771882832915464</v>
+      </c>
+      <c r="M11">
+        <v>1.4260278516600129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>9.5124673424841905E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.310410881850446E-2</v>
+      </c>
+      <c r="N12">
+        <v>1.39466643589026E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13">
+        <v>0.46496292895282798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14">
+        <v>3.100755280073463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15">
+        <v>0.1143725565631498</v>
+      </c>
+      <c r="J15">
+        <v>0.84976802990340228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16">
+        <v>5.2516746786631459E-4</v>
+      </c>
+      <c r="E16">
+        <v>6.4764170821192804E-2</v>
+      </c>
+      <c r="F16">
+        <v>7.6276745361462353E-2</v>
+      </c>
+      <c r="G16">
+        <v>3.3714454727220202E-3</v>
+      </c>
+      <c r="H16">
+        <v>1.790269963760323E-3</v>
+      </c>
+      <c r="I16">
+        <v>5.7446675346864172E-2</v>
+      </c>
+      <c r="J16">
+        <v>4.9843397189886833E-2</v>
+      </c>
+      <c r="K16">
+        <v>1.4034006479835871E-2</v>
+      </c>
+      <c r="L16">
+        <v>4.2150159790728704E-3</v>
+      </c>
+      <c r="M16">
+        <v>0.28421305596137209</v>
+      </c>
+      <c r="N16">
+        <v>2.2188325517351799E-2</v>
+      </c>
+      <c r="O16">
+        <v>6.1593715367036907E-4</v>
+      </c>
+      <c r="P16">
+        <v>4.2888676542415698E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17">
+        <v>0.58240915977961416</v>
+      </c>
+      <c r="I17">
+        <v>4.4663502926997237E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.70736931605618492</v>
+      </c>
+      <c r="N17">
+        <v>0.16472681359044991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>2.336623651249534E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.1242566046611997</v>
+      </c>
+      <c r="I18">
+        <v>4.018413633471777E-2</v>
+      </c>
+      <c r="N18">
+        <v>0.63581595952368286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19">
+        <v>0.40139730639730647</v>
+      </c>
+      <c r="N19">
+        <v>0.30973829201101932</v>
       </c>
     </row>
   </sheetData>
@@ -637,21 +3274,315 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAAD962-7412-49B1-99A9-CC05BB7B92CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80BF3F6-442D-456F-8FCB-F415048ACB03}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>13.06994226639066</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4.4877669016359228E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6">
+        <v>-0.88389165285035487</v>
+      </c>
+      <c r="C6">
+        <v>0.37675470360558988</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7">
+        <v>-2.7287764717439309</v>
+      </c>
+      <c r="C7">
+        <v>6.3569777777342483E-3</v>
+      </c>
+      <c r="D7">
+        <v>3.814186666640549E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8">
+        <v>-1.79035814798523</v>
+      </c>
+      <c r="C8">
+        <v>7.3396353902052902E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.44037812341231741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9">
+        <v>-3.1302591318426818</v>
+      </c>
+      <c r="C9">
+        <v>1.746521632796573E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.047912979677944E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10">
+        <v>-2.1890584114046541</v>
+      </c>
+      <c r="C10">
+        <v>2.8592594791201069E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.1715555687472064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11">
+        <v>-0.45184389767727662</v>
+      </c>
+      <c r="C11">
+        <v>0.65138144311842683</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEB1B91-8CC9-4BD3-8321-8DD1829250FB}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>9.5965805270444016E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.1988601756814672E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.42556503735965839</v>
+      </c>
+      <c r="F4">
+        <v>9999</v>
+      </c>
+      <c r="G4">
+        <v>0.7298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>0.34576987102676032</v>
+      </c>
+      <c r="D5">
+        <v>7.5167363266687012E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1.0117658979776649</v>
+      </c>
+      <c r="D9">
+        <v>0.1486804700543396</v>
+      </c>
+      <c r="E9">
+        <v>2.6779218933757951</v>
+      </c>
+      <c r="F9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>5.7932024856162636</v>
+      </c>
+      <c r="D10">
+        <v>0.85131952994566029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>6.8049683835939296</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAAD962-7412-49B1-99A9-CC05BB7B92CA}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -793,27 +3724,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DA442-F25B-4037-B4E4-DE10CB0F01A3}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -834,7 +3763,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -890,7 +3819,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -911,7 +3840,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -967,7 +3896,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -988,7 +3917,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1044,7 +3973,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1065,7 +3994,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1121,7 +4050,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1142,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1198,7 +4127,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1219,7 +4148,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1278,27 +4207,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B191C15-D3B0-404A-BD3A-815560A67DCB}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1319,7 +4246,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1375,7 +4302,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1396,7 +4323,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1452,7 +4379,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1473,7 +4400,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1529,7 +4456,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1550,7 +4477,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1606,7 +4533,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1627,7 +4554,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1683,7 +4610,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1704,7 +4631,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1756,6 +4683,2303 @@
       </c>
       <c r="D36">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7DB178-BA13-433B-9EF2-B8B45D56E03B}">
+  <dimension ref="A1:X34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="G3">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="I3">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="J3">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="Q3">
+        <v>3215.2513755938448</v>
+      </c>
+      <c r="R3">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="U3">
+        <v>6430.5027511876906</v>
+      </c>
+      <c r="W3">
+        <v>3507.5469551932861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>2922.955795994405</v>
+      </c>
+      <c r="D4">
+        <v>11107.232024778739</v>
+      </c>
+      <c r="E4">
+        <v>7891.9806491848922</v>
+      </c>
+      <c r="F4">
+        <v>8184.2762287843334</v>
+      </c>
+      <c r="G4">
+        <v>9645.7541267815359</v>
+      </c>
+      <c r="H4">
+        <v>14322.483400372579</v>
+      </c>
+      <c r="I4">
+        <v>4969.0248531904881</v>
+      </c>
+      <c r="J4">
+        <v>7891.9806491848922</v>
+      </c>
+      <c r="K4">
+        <v>12568.709922775941</v>
+      </c>
+      <c r="L4">
+        <v>32152.513755938449</v>
+      </c>
+      <c r="M4">
+        <v>3799.8425347927259</v>
+      </c>
+      <c r="N4">
+        <v>13737.8922411737</v>
+      </c>
+      <c r="O4">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="P4">
+        <v>2046.0690571960829</v>
+      </c>
+      <c r="Q4">
+        <v>40044.49440512334</v>
+      </c>
+      <c r="R4">
+        <v>7015.0939103865712</v>
+      </c>
+      <c r="S4">
+        <v>13445.59666157426</v>
+      </c>
+      <c r="T4">
+        <v>5261.3204327899284</v>
+      </c>
+      <c r="U4">
+        <v>30691.03585794125</v>
+      </c>
+      <c r="V4">
+        <v>7891.9806491848922</v>
+      </c>
+      <c r="W4">
+        <v>8184.2762287843334</v>
+      </c>
+      <c r="X4">
+        <v>1461.477897997202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="N5">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="U5">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="U6">
+        <v>2338.3646367955239</v>
+      </c>
+      <c r="W6">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="D7">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="E7">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="F7">
+        <v>27768.080061946839</v>
+      </c>
+      <c r="G7">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="H7">
+        <v>7015.0939103865712</v>
+      </c>
+      <c r="I7">
+        <v>2046.0690571960829</v>
+      </c>
+      <c r="J7">
+        <v>2922.955795994405</v>
+      </c>
+      <c r="K7">
+        <v>12568.709922775941</v>
+      </c>
+      <c r="L7">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="N7">
+        <v>2922.955795994405</v>
+      </c>
+      <c r="O7">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="P7">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="Q7">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="S7">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="T7">
+        <v>4384.4336939916066</v>
+      </c>
+      <c r="U7">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="V7">
+        <v>60505.184977084173</v>
+      </c>
+      <c r="W7">
+        <v>1169.1823183977619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="E8">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="W8">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="F10">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="H10">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="J10">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="M10">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="N10">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="Q10">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="R10">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="S10">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="U10">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="V10">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="W10">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="G11">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="L11">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="M11">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="W11">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="X11">
+        <v>2922.955795994405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="H12">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="I12">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="J12">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="K12">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="M12">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="T12">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="U12">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="W12">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="E13">
+        <v>4676.7292735910478</v>
+      </c>
+      <c r="G13">
+        <v>3215.2513755938448</v>
+      </c>
+      <c r="H13">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="I13">
+        <v>6138.2071715882494</v>
+      </c>
+      <c r="L13">
+        <v>18999.21267396363</v>
+      </c>
+      <c r="N13">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="O13">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="Q13">
+        <v>8476.5718083837728</v>
+      </c>
+      <c r="R13">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="S13">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="U13">
+        <v>29229.55795994405</v>
+      </c>
+      <c r="V13">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="W13">
+        <v>2922.955795994405</v>
+      </c>
+      <c r="X13">
+        <v>584.59115919888097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>2338.3646367955239</v>
+      </c>
+      <c r="D14">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="E14">
+        <v>2922.955795994405</v>
+      </c>
+      <c r="F14">
+        <v>3215.2513755938448</v>
+      </c>
+      <c r="G14">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="H14">
+        <v>6138.2071715882494</v>
+      </c>
+      <c r="I14">
+        <v>2922.955795994405</v>
+      </c>
+      <c r="J14">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="K14">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="L14">
+        <v>31275.62701714013</v>
+      </c>
+      <c r="M14">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="N14">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="R14">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="S14">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="T14">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="U14">
+        <v>8184.2762287843334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>584.59115919888097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="E16">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="F16">
+        <v>2630.6602163949642</v>
+      </c>
+      <c r="I16">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="L16">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="N16">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="Q16">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="R16">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="U16">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="V16">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="W16">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="X16">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="J17">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="K17">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="N17">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="U17">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="V17">
+        <v>6430.5027511876906</v>
+      </c>
+      <c r="W17">
+        <v>27768.080061946839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="D18">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="E18">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="H18">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="T18">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="U18">
+        <v>2630.6602163949642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="L19">
+        <v>876.8867387983214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V20">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="L22">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="W22">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="O24">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="H25">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="I25">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="K25">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="O25">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="R25">
+        <v>2922.955795994405</v>
+      </c>
+      <c r="T25">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="U25">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="V25">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="X25">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="H26">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="J26">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="L26">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="N26">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="O26">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="P26">
+        <v>2046.0690571960829</v>
+      </c>
+      <c r="R26">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="S26">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="U26">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="V26">
+        <v>3215.2513755938448</v>
+      </c>
+      <c r="W26">
+        <v>876.8867387983214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="E27">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="J27">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="K27">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="R27">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="V27">
+        <v>2338.3646367955239</v>
+      </c>
+      <c r="X27">
+        <v>876.8867387983214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="E28">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="F28">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="G28">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="K28">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="U29">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="D30">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="E30">
+        <v>19876.099412761949</v>
+      </c>
+      <c r="F30">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="G30">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="H30">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="I30">
+        <v>9061.1629675826534</v>
+      </c>
+      <c r="J30">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="K30">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="L30">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="N30">
+        <v>2630.6602163949642</v>
+      </c>
+      <c r="O30">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="P30">
+        <v>2338.3646367955239</v>
+      </c>
+      <c r="Q30">
+        <v>56705.342442291447</v>
+      </c>
+      <c r="R30">
+        <v>5261.3204327899284</v>
+      </c>
+      <c r="S30">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="T30">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="U30">
+        <v>14030.187820773141</v>
+      </c>
+      <c r="V30">
+        <v>12568.709922775941</v>
+      </c>
+      <c r="W30">
+        <v>35952.356290731179</v>
+      </c>
+      <c r="X30">
+        <v>5553.6160123893687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="D31">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="E31">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="F31">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="G31">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="H31">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="I31">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="K31">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="M31">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="N31">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="V31">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="W31">
+        <v>3799.8425347927259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="F32">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="G32">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="I32">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="U32">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="X32">
+        <v>2338.3646367955239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="N33">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="Q33">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="U33">
+        <v>876.8867387983214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34">
+        <v>7891.9806491848931</v>
+      </c>
+      <c r="D34">
+        <v>19291.508253563072</v>
+      </c>
+      <c r="E34">
+        <v>40629.085564322217</v>
+      </c>
+      <c r="F34">
+        <v>49105.657372706002</v>
+      </c>
+      <c r="G34">
+        <v>19291.508253563072</v>
+      </c>
+      <c r="H34">
+        <v>32737.10491513733</v>
+      </c>
+      <c r="I34">
+        <v>31567.922596739569</v>
+      </c>
+      <c r="J34">
+        <v>15199.3701391709</v>
+      </c>
+      <c r="K34">
+        <v>30983.331437540692</v>
+      </c>
+      <c r="L34">
+        <v>86227.195981834942</v>
+      </c>
+      <c r="M34">
+        <v>7599.6850695854519</v>
+      </c>
+      <c r="N34">
+        <v>26014.306584350201</v>
+      </c>
+      <c r="O34">
+        <v>4969.0248531904881</v>
+      </c>
+      <c r="P34">
+        <v>6722.7983307871309</v>
+      </c>
+      <c r="Q34">
+        <v>110195.4335089891</v>
+      </c>
+      <c r="R34">
+        <v>19876.099412761949</v>
+      </c>
+      <c r="S34">
+        <v>18122.325935165311</v>
+      </c>
+      <c r="T34">
+        <v>14907.07455957146</v>
+      </c>
+      <c r="U34">
+        <v>101426.5661210059</v>
+      </c>
+      <c r="V34">
+        <v>97919.019165812555</v>
+      </c>
+      <c r="W34">
+        <v>86227.195981834942</v>
+      </c>
+      <c r="X34">
+        <v>14322.483400372579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B69641D-B9DA-4D44-B882-55FA4C6BD240}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>13737.8922411737</v>
+      </c>
+      <c r="E4">
+        <v>4384.4336939916066</v>
+      </c>
+      <c r="F4">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="G4">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="K4">
+        <v>2922.955795994405</v>
+      </c>
+      <c r="M4">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="P4">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="Q4">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>3799.8425347927259</v>
+      </c>
+      <c r="D5">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="E5">
+        <v>3799.8425347927259</v>
+      </c>
+      <c r="F5">
+        <v>14322.483400372579</v>
+      </c>
+      <c r="G5">
+        <v>4969.0248531904881</v>
+      </c>
+      <c r="H5">
+        <v>13445.59666157426</v>
+      </c>
+      <c r="I5">
+        <v>5845.9115919888091</v>
+      </c>
+      <c r="J5">
+        <v>5845.9115919888091</v>
+      </c>
+      <c r="K5">
+        <v>32152.513755938449</v>
+      </c>
+      <c r="L5">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="M5">
+        <v>19876.099412761949</v>
+      </c>
+      <c r="N5">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="O5">
+        <v>7015.0939103865712</v>
+      </c>
+      <c r="P5">
+        <v>8768.8673879832131</v>
+      </c>
+      <c r="Q5">
+        <v>2046.0690571960829</v>
+      </c>
+      <c r="R5">
+        <v>44428.92809911495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="H6">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="J6">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="L6">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="P6">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="L7">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="M7">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="R7">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="D8">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="E8">
+        <v>3507.5469551932861</v>
+      </c>
+      <c r="F8">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="H8">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="I8">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="J8">
+        <v>2338.3646367955239</v>
+      </c>
+      <c r="K8">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="M8">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="O8">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="P8">
+        <v>2630.6602163949642</v>
+      </c>
+      <c r="Q8">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="R8">
+        <v>1753.773477596643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="M10">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="F11">
+        <v>2338.3646367955239</v>
+      </c>
+      <c r="G11">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="L11">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="M11">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="O11">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="P11">
+        <v>584.59115919888097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12">
+        <v>4969.0248531904881</v>
+      </c>
+      <c r="E12">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="F12">
+        <v>13737.8922411737</v>
+      </c>
+      <c r="G12">
+        <v>10522.64086557986</v>
+      </c>
+      <c r="I12">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="J12">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="K12">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="L12">
+        <v>4969.0248531904881</v>
+      </c>
+      <c r="M12">
+        <v>4969.0248531904881</v>
+      </c>
+      <c r="N12">
+        <v>3799.8425347927259</v>
+      </c>
+      <c r="P12">
+        <v>11691.82318397762</v>
+      </c>
+      <c r="Q12">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="R12">
+        <v>1753.773477596643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="F13">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="H13">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="I13">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="J13">
+        <v>2338.3646367955239</v>
+      </c>
+      <c r="L13">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="N13">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="P13">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="R13">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="H14">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="I14">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="K14">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="M14">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="N14">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="P14">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="I15">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="J15">
+        <v>876.8867387983214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="O16">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="P17">
+        <v>1461.477897997202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="J18">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="P18">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="F19">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="G19">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="J19">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="K19">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="M19">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="P19">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="K21">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="M21">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="O21">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22">
+        <v>6430.5027511876906</v>
+      </c>
+      <c r="D22">
+        <v>3215.2513755938448</v>
+      </c>
+      <c r="E22">
+        <v>2630.6602163949642</v>
+      </c>
+      <c r="F22">
+        <v>21922.168469958029</v>
+      </c>
+      <c r="G22">
+        <v>27768.080061946839</v>
+      </c>
+      <c r="H22">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="I22">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="J22">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="K22">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="L22">
+        <v>4092.1381143921658</v>
+      </c>
+      <c r="M22">
+        <v>16953.143616767549</v>
+      </c>
+      <c r="N22">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="O22">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="P22">
+        <v>4092.1381143921658</v>
+      </c>
+      <c r="Q22">
+        <v>7599.6850695854519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="E23">
+        <v>2046.0690571960829</v>
+      </c>
+      <c r="F23">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="G23">
+        <v>6138.2071715882494</v>
+      </c>
+      <c r="J23">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="M23">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="P23">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="Q23">
+        <v>876.8867387983214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="F24">
+        <v>2922.955795994405</v>
+      </c>
+      <c r="G24">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="H24">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="I24">
+        <v>2630.6602163949642</v>
+      </c>
+      <c r="K24">
+        <v>7599.6850695854519</v>
+      </c>
+      <c r="L24">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="M24">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="N24">
+        <v>876.8867387983214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26">
+        <v>24552.828686353001</v>
+      </c>
+      <c r="D26">
+        <v>11399.52760437818</v>
+      </c>
+      <c r="E26">
+        <v>18414.621514764749</v>
+      </c>
+      <c r="F26">
+        <v>61966.662875081383</v>
+      </c>
+      <c r="G26">
+        <v>52028.613168700402</v>
+      </c>
+      <c r="H26">
+        <v>16660.848037168111</v>
+      </c>
+      <c r="I26">
+        <v>14322.483400372579</v>
+      </c>
+      <c r="J26">
+        <v>17537.73477596643</v>
+      </c>
+      <c r="K26">
+        <v>48228.770633907683</v>
+      </c>
+      <c r="L26">
+        <v>11107.232024778739</v>
+      </c>
+      <c r="M26">
+        <v>48813.36179310656</v>
+      </c>
+      <c r="N26">
+        <v>9353.4585471820956</v>
+      </c>
+      <c r="O26">
+        <v>9938.0497063809762</v>
+      </c>
+      <c r="P26">
+        <v>33613.991653935649</v>
+      </c>
+      <c r="Q26">
+        <v>11399.52760437818</v>
+      </c>
+      <c r="R26">
+        <v>48521.066213507118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DA1E16-6C64-462D-A4DB-29EE0A455F51}">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="F3">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="J3">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="P3">
+        <v>876.8867387983214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="D4">
+        <v>7015.0939103865712</v>
+      </c>
+      <c r="E4">
+        <v>2630.6602163949642</v>
+      </c>
+      <c r="F4">
+        <v>4676.7292735910478</v>
+      </c>
+      <c r="G4">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="H4">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="I4">
+        <v>2338.3646367955239</v>
+      </c>
+      <c r="J4">
+        <v>10814.936445179301</v>
+      </c>
+      <c r="K4">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="M4">
+        <v>19291.508253563072</v>
+      </c>
+      <c r="N4">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="O4">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="P4">
+        <v>876.8867387983214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="E5">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="F5">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="G5">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="H5">
+        <v>9061.1629675826534</v>
+      </c>
+      <c r="I5">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="J5">
+        <v>26306.602163949639</v>
+      </c>
+      <c r="M5">
+        <v>1753.773477596643</v>
+      </c>
+      <c r="N5">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="P5">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="D7">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="F7">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="H7">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="J7">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="M7">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="H8">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="L8">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="N8">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="F9">
+        <v>3215.2513755938448</v>
+      </c>
+      <c r="H9">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="I9">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="K9">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="L9">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="M9">
+        <v>18999.21267396363</v>
+      </c>
+      <c r="N9">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="P9">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="J10">
+        <v>1461.477897997202</v>
+      </c>
+      <c r="P10">
+        <v>584.59115919888097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="G11">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="M11">
+        <v>584.59115919888097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="J12">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="N12">
+        <v>1753.773477596643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13">
+        <v>584.59115919888097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14">
+        <v>2922.955795994405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="J15">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="E16">
+        <v>19876.099412761949</v>
+      </c>
+      <c r="F16">
+        <v>4676.7292735910478</v>
+      </c>
+      <c r="G16">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="H16">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="I16">
+        <v>6138.2071715882494</v>
+      </c>
+      <c r="J16">
+        <v>3507.5469551932861</v>
+      </c>
+      <c r="K16">
+        <v>3215.2513755938448</v>
+      </c>
+      <c r="L16">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="M16">
+        <v>39752.198825523912</v>
+      </c>
+      <c r="N16">
+        <v>2046.0690571960829</v>
+      </c>
+      <c r="O16">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="P16">
+        <v>1169.1823183977619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="I17">
+        <v>1169.1823183977619</v>
+      </c>
+      <c r="J17">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="N17">
+        <v>584.59115919888097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="F18">
+        <v>292.29557959944049</v>
+      </c>
+      <c r="I18">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="N18">
+        <v>292.29557959944049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19">
+        <v>876.8867387983214</v>
+      </c>
+      <c r="N19">
+        <v>876.8867387983214</v>
       </c>
     </row>
   </sheetData>

--- a/report/table.xlsx
+++ b/report/table.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Analysis\2022_OCA_midterm\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A48714-743C-45C2-8CE1-81F08D9BF78D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064C9630-C636-409F-9A50-885BF153604A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7605" activeTab="1" xr2:uid="{9B8C69D9-9F58-4ACB-8774-7CB00936FCA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7605" activeTab="6" xr2:uid="{9B8C69D9-9F58-4ACB-8774-7CB00936FCA3}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表0" sheetId="11" r:id="rId1"/>
-    <sheet name="工作表12" sheetId="12" r:id="rId2"/>
-    <sheet name="工作表1" sheetId="1" r:id="rId3"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId4"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId5"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId6"/>
-    <sheet name="工作表5" sheetId="5" r:id="rId7"/>
-    <sheet name="工作表6" sheetId="6" r:id="rId8"/>
-    <sheet name="工作表7" sheetId="7" r:id="rId9"/>
-    <sheet name="工作表8" sheetId="8" r:id="rId10"/>
-    <sheet name="工作表9" sheetId="9" r:id="rId11"/>
-    <sheet name="工作表10" sheetId="10" r:id="rId12"/>
+    <sheet name="表一" sheetId="11" r:id="rId1"/>
+    <sheet name="表二" sheetId="12" r:id="rId2"/>
+    <sheet name="表三" sheetId="1" r:id="rId3"/>
+    <sheet name="表五" sheetId="3" r:id="rId4"/>
+    <sheet name="表四" sheetId="2" r:id="rId5"/>
+    <sheet name="表六" sheetId="4" r:id="rId6"/>
+    <sheet name="附錄一" sheetId="5" r:id="rId7"/>
+    <sheet name="附錄二" sheetId="6" r:id="rId8"/>
+    <sheet name="附錄三" sheetId="7" r:id="rId9"/>
+    <sheet name="附錄四" sheetId="8" r:id="rId10"/>
+    <sheet name="附錄五" sheetId="9" r:id="rId11"/>
+    <sheet name="附錄六" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="144">
   <si>
     <t>Df</t>
   </si>
@@ -296,9 +296,6 @@
     <t>Platyhelminthes</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Total density</t>
   </si>
   <si>
@@ -462,6 +459,15 @@
   </si>
   <si>
     <t>總生物密度的K-W檢定(Kruskal-Wallis test)與鄧恩多重比較(Dunn's test)</t>
+  </si>
+  <si>
+    <t>生物量組成的配對排列變異數分析(PERMANOVA)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>附錄</t>
   </si>
 </sst>
 </file>
@@ -839,7 +845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83919AA2-2607-478E-A207-07F3CE69F559}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
@@ -848,54 +856,54 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>8.3549286765158524</v>
+        <v>8.1740164526601742</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.9218597350113099E-2</v>
+        <v>4.2548934413171313E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7">
-        <v>-0.78234688965262422</v>
+        <v>-1.247885552504673</v>
       </c>
       <c r="C7">
-        <v>0.43401073718844541</v>
+        <v>0.21207297221371549</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -903,27 +911,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8">
-        <v>-1.94026879026615</v>
+        <v>-2.3635173144440729</v>
       </c>
       <c r="C8">
-        <v>5.2347032224885078E-2</v>
+        <v>1.8102380744663318E-2</v>
       </c>
       <c r="D8">
-        <v>0.31408219334931048</v>
+        <v>0.1086142844679799</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9">
-        <v>-1.082402362398293</v>
+        <v>-0.85851071118467581</v>
       </c>
       <c r="C9">
-        <v>0.27907377902957847</v>
+        <v>0.39061051850177392</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -931,41 +939,41 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10">
-        <v>-2.6129194494022179</v>
+        <v>-2.7245583587513842</v>
       </c>
       <c r="C10">
-        <v>8.9772457733713323E-3</v>
+        <v>6.4387550181131178E-3</v>
       </c>
       <c r="D10">
-        <v>5.386347464022799E-2</v>
+        <v>3.8632530108678703E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11">
-        <v>-1.770173021503098</v>
+        <v>-1.1602510326414339</v>
       </c>
       <c r="C11">
-        <v>7.6698322114434933E-2</v>
+        <v>0.24594661485677261</v>
       </c>
       <c r="D11">
-        <v>0.46018993268660963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12">
-        <v>-0.87349505070366129</v>
+        <v>-0.37554796259149509</v>
       </c>
       <c r="C12">
-        <v>0.38239330273771999</v>
+        <v>0.70725298318065311</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -978,7 +986,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C535A7-235D-472F-9C7E-8CE41B354BCE}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -986,10 +994,10 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1074,7 +1082,7 @@
         <v>51</v>
       </c>
       <c r="E3">
-        <v>0.13013212214170719</v>
+        <v>3.9387560089973593E-2</v>
       </c>
       <c r="G3">
         <v>1.969378004498681E-2</v>
@@ -1095,7 +1103,7 @@
         <v>0.50825269900545378</v>
       </c>
       <c r="W3">
-        <v>0.34698252241483962</v>
+        <v>0.32803272961599678</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1106,70 +1114,70 @@
         <v>52</v>
       </c>
       <c r="C4">
-        <v>1.3301341131108739</v>
+        <v>1.3035515622682581</v>
       </c>
       <c r="D4">
-        <v>5.4259208681056252</v>
+        <v>3.2993208529144669</v>
       </c>
       <c r="E4">
-        <v>3.046272190819757</v>
+        <v>1.6056010641010321</v>
       </c>
       <c r="F4">
-        <v>131.47577607534109</v>
+        <v>131.06163776297291</v>
       </c>
       <c r="G4">
-        <v>2.2488765072926991</v>
+        <v>2.0306037784607609</v>
       </c>
       <c r="H4">
-        <v>47.280378146237027</v>
+        <v>47.096491729895988</v>
       </c>
       <c r="I4">
-        <v>2.0671904453887811</v>
+        <v>2.018174815054592</v>
       </c>
       <c r="J4">
-        <v>1.981841979069374</v>
+        <v>1.943942393471688</v>
       </c>
       <c r="K4">
-        <v>4.1196324377216493</v>
+        <v>3.210392495022437</v>
       </c>
       <c r="L4">
-        <v>10.08694156865416</v>
+        <v>9.7695288922772399</v>
       </c>
       <c r="M4">
-        <v>0.96778385740650519</v>
+        <v>0.96323240601833049</v>
       </c>
       <c r="N4">
-        <v>7.6000812270314899</v>
+        <v>4.8411930879230107</v>
       </c>
       <c r="O4">
-        <v>0.40657687336331783</v>
+        <v>0.15467154461010871</v>
       </c>
       <c r="P4">
         <v>22.58930138241708</v>
       </c>
       <c r="Q4">
-        <v>18.56250542181386</v>
+        <v>18.339965978076901</v>
       </c>
       <c r="R4">
-        <v>3.0452710903341371</v>
+        <v>0.4696747720951075</v>
       </c>
       <c r="S4">
-        <v>13.594632067399591</v>
+        <v>7.2004061253322558</v>
       </c>
       <c r="T4">
-        <v>4.063748601596771</v>
+        <v>3.9253204746111132</v>
       </c>
       <c r="U4">
-        <v>9.335814548348166</v>
+        <v>8.4512574766386699</v>
       </c>
       <c r="V4">
-        <v>1.8426594708981039</v>
+        <v>0.82033346678501151</v>
       </c>
       <c r="W4">
-        <v>2.9794938649838811</v>
+        <v>0.46245371941194557</v>
       </c>
       <c r="X4">
-        <v>1.137775319132371</v>
+        <v>1.1179064832647621</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1223,7 +1231,7 @@
         <v>2.626663074343942E-2</v>
       </c>
       <c r="F7">
-        <v>17.44780558339507</v>
+        <v>17.17817007245629</v>
       </c>
       <c r="G7">
         <v>1.0569408158315771E-2</v>
@@ -1265,7 +1273,7 @@
         <v>0.8251735125600087</v>
       </c>
       <c r="V7">
-        <v>10.21239336836816</v>
+        <v>10.178042791853629</v>
       </c>
       <c r="W7">
         <v>0.14489997997041021</v>
@@ -1415,7 +1423,7 @@
         <v>1.184929742748682E-2</v>
       </c>
       <c r="E13">
-        <v>3.2846706623250253E-2</v>
+        <v>2.981213045279631E-2</v>
       </c>
       <c r="G13">
         <v>5.1608438273026219E-2</v>
@@ -1695,7 +1703,7 @@
         <v>76</v>
       </c>
       <c r="N24">
-        <v>10.733702938475661</v>
+        <v>10.20761478420569</v>
       </c>
       <c r="O24">
         <v>26.148760330578519</v>
@@ -1860,7 +1868,7 @@
         <v>7.7024561953726181E-3</v>
       </c>
       <c r="E30">
-        <v>0.40924260276389463</v>
+        <v>0.39943947669705682</v>
       </c>
       <c r="F30">
         <v>1.576312847222195E-3</v>
@@ -1872,7 +1880,7 @@
         <v>1.6181722603630828E-2</v>
       </c>
       <c r="I30">
-        <v>0.1956029998023745</v>
+        <v>0.19087649259157771</v>
       </c>
       <c r="J30">
         <v>2.1087771442504451E-2</v>
@@ -1893,7 +1901,7 @@
         <v>7.5046431158096363E-3</v>
       </c>
       <c r="Q30">
-        <v>0.40840824801459469</v>
+        <v>0.3965810389986888</v>
       </c>
       <c r="R30">
         <v>2.7138685361326648E-2</v>
@@ -1911,7 +1919,7 @@
         <v>4.5777972894793559E-2</v>
       </c>
       <c r="W30">
-        <v>0.1403777838576393</v>
+        <v>0.14015896407936171</v>
       </c>
       <c r="X30">
         <v>4.4836172569086619E-2</v>
@@ -1930,9 +1938,6 @@
       <c r="D31">
         <v>4.129843893480257</v>
       </c>
-      <c r="E31">
-        <v>3.2831869834710738E-2</v>
-      </c>
       <c r="F31">
         <v>2.5098140495867768E-2</v>
       </c>
@@ -1948,17 +1953,14 @@
       <c r="K31">
         <v>0.2075298438934802</v>
       </c>
-      <c r="M31">
-        <v>0.16861799816345269</v>
-      </c>
       <c r="N31">
-        <v>0.4572719846295446</v>
+        <v>0.34687883809687792</v>
       </c>
       <c r="V31">
-        <v>0.59561065197428842</v>
+        <v>0.25318640955004601</v>
       </c>
       <c r="W31">
-        <v>0.51432704889807157</v>
+        <v>0.36324207988980722</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -1989,90 +1991,73 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="C33">
+        <v>2.1321581477509031</v>
+      </c>
+      <c r="D33">
+        <v>11.73677588763756</v>
+      </c>
+      <c r="E33">
+        <v>19.734929319125531</v>
+      </c>
+      <c r="F33">
+        <v>216.35701772167451</v>
+      </c>
+      <c r="G33">
+        <v>6.2008786669271174</v>
+      </c>
+      <c r="H33">
+        <v>61.314271888841482</v>
+      </c>
+      <c r="I33">
+        <v>8.0843478484915003</v>
+      </c>
+      <c r="J33">
+        <v>5.4527965295645364</v>
+      </c>
+      <c r="K33">
+        <v>11.84958031948376</v>
+      </c>
+      <c r="L33">
+        <v>10.98289414296471</v>
+      </c>
+      <c r="M33">
+        <v>9.7456751629141536</v>
       </c>
       <c r="N33">
-        <v>0.61448049518756598</v>
+        <v>23.372423465331199</v>
+      </c>
+      <c r="O33">
+        <v>100.4855500161179</v>
+      </c>
+      <c r="P33">
+        <v>76.930714824483033</v>
       </c>
       <c r="Q33">
-        <v>0.149687801183047</v>
+        <v>19.220273564626979</v>
+      </c>
+      <c r="R33">
+        <v>8.1225363039167515</v>
+      </c>
+      <c r="S33">
+        <v>17.517297819237331</v>
+      </c>
+      <c r="T33">
+        <v>13.067764347542029</v>
       </c>
       <c r="U33">
-        <v>1.6848829201101929</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="A34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34">
-        <v>2.1587406985935189</v>
-      </c>
-      <c r="D34">
-        <v>13.86337590282872</v>
-      </c>
-      <c r="E34">
-        <v>21.31201457996799</v>
-      </c>
-      <c r="F34">
-        <v>217.04079154498149</v>
-      </c>
-      <c r="G34">
-        <v>6.4191513957590542</v>
-      </c>
-      <c r="H34">
-        <v>61.498158305182521</v>
-      </c>
-      <c r="I34">
-        <v>8.1380899860364853</v>
-      </c>
-      <c r="J34">
-        <v>5.4906961151622218</v>
-      </c>
-      <c r="K34">
-        <v>12.758820262182979</v>
-      </c>
-      <c r="L34">
-        <v>11.30030681934163</v>
-      </c>
-      <c r="M34">
-        <v>9.9188446124657812</v>
-      </c>
-      <c r="N34">
-        <v>27.382273400429881</v>
-      </c>
-      <c r="O34">
-        <v>100.73745534487109</v>
-      </c>
-      <c r="P34">
-        <v>76.930714824483033</v>
-      </c>
-      <c r="Q34">
-        <v>19.604328018562889</v>
-      </c>
-      <c r="R34">
-        <v>10.69813262215578</v>
-      </c>
-      <c r="S34">
-        <v>23.911523761304661</v>
-      </c>
-      <c r="T34">
-        <v>13.20619247452769</v>
-      </c>
-      <c r="U34">
-        <v>27.07773566817551</v>
-      </c>
-      <c r="V34">
-        <v>31.406919864096022</v>
-      </c>
-      <c r="W34">
-        <v>26.711432186261948</v>
-      </c>
-      <c r="X34">
-        <v>4.8670113047585648</v>
+        <v>24.508295676355822</v>
+      </c>
+      <c r="V33">
+        <v>30.007819041044151</v>
+      </c>
+      <c r="W33">
+        <v>24.024138459104631</v>
+      </c>
+      <c r="X33">
+        <v>4.8471424688909561</v>
       </c>
     </row>
   </sheetData>
@@ -2082,7 +2067,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FF8FD3-A310-4FE7-92A6-EA7F3B4DBF98}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2090,10 +2075,10 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2104,52 +2089,52 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2157,7 +2142,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M3">
         <v>1.018606067882373E-2</v>
@@ -2189,7 +2174,7 @@
         <v>7.38516751687005E-3</v>
       </c>
       <c r="P4">
-        <v>0.49853710084992708</v>
+        <v>0.33332816825031558</v>
       </c>
       <c r="Q4">
         <v>7.7681021288559041E-2</v>
@@ -2209,46 +2194,46 @@
         <v>0.49862462876123798</v>
       </c>
       <c r="E5">
-        <v>4.6130710377377078</v>
+        <v>4.5571407024099466</v>
       </c>
       <c r="F5">
-        <v>2.0967597848994339</v>
+        <v>2.0298001223028561</v>
       </c>
       <c r="G5">
-        <v>7.9951714127746021</v>
+        <v>6.6287731892977622</v>
       </c>
       <c r="H5">
-        <v>78.098325193719702</v>
+        <v>72.126908500345792</v>
       </c>
       <c r="I5">
-        <v>7.6641586819559144</v>
+        <v>4.3643069884682184</v>
       </c>
       <c r="J5">
-        <v>11.05756555598078</v>
+        <v>10.9002949186709</v>
       </c>
       <c r="K5">
-        <v>7.0803069913300334</v>
+        <v>6.7685258850801722</v>
       </c>
       <c r="L5">
         <v>1.4403593085346791</v>
       </c>
       <c r="M5">
-        <v>18.935288439249611</v>
+        <v>17.91129327786782</v>
       </c>
       <c r="N5">
-        <v>20.924072366374961</v>
+        <v>20.671991981799131</v>
       </c>
       <c r="O5">
         <v>24.950181230860739</v>
       </c>
       <c r="P5">
-        <v>7.3889944316590377</v>
+        <v>6.8715974972524503</v>
       </c>
       <c r="Q5">
         <v>2.6714831450802872</v>
       </c>
       <c r="R5">
-        <v>8.7539563464245731</v>
+        <v>8.6595137301199472</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2332,7 +2317,7 @@
         <v>1.044852055250503</v>
       </c>
       <c r="P8">
-        <v>8.5625087548550649</v>
+        <v>5.4623692244190734</v>
       </c>
       <c r="Q8">
         <v>0.20653284129358909</v>
@@ -2511,7 +2496,7 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15">
         <v>1.7023932506887052E-2</v>
@@ -2648,7 +2633,7 @@
         <v>0.1759577492555055</v>
       </c>
       <c r="G22">
-        <v>0.1034785055238775</v>
+        <v>0.10334721365691089</v>
       </c>
       <c r="H22">
         <v>3.7199362307197302E-2</v>
@@ -2666,7 +2651,7 @@
         <v>5.0645400042801172E-2</v>
       </c>
       <c r="M22">
-        <v>0.14304648252104099</v>
+        <v>0.14280031027047871</v>
       </c>
       <c r="N22">
         <v>7.0317735749516774E-2</v>
@@ -2692,16 +2677,16 @@
         <v>0.85917355371900828</v>
       </c>
       <c r="E23">
-        <v>6.1398677112029389</v>
+        <v>5.7071679866850316</v>
       </c>
       <c r="F23">
         <v>5.4879964151192062E-2</v>
       </c>
       <c r="G23">
-        <v>0.23058511248852159</v>
+        <v>0.15661207242883379</v>
       </c>
       <c r="J23">
-        <v>42.822356519742868</v>
+        <v>42.707339589072532</v>
       </c>
       <c r="M23">
         <v>1.1191208964646459E-2</v>
@@ -2724,7 +2709,7 @@
         <v>7.6297915142841963E-3</v>
       </c>
       <c r="F24">
-        <v>0.20477983644510919</v>
+        <v>0.19781613784080221</v>
       </c>
       <c r="G24">
         <v>2.248063571173021E-3</v>
@@ -2733,10 +2718,10 @@
         <v>0.57296101038219893</v>
       </c>
       <c r="I24">
-        <v>0.26254237072559328</v>
+        <v>0.13129179050963311</v>
       </c>
       <c r="K24">
-        <v>1.189445767811117</v>
+        <v>1.178048178018174</v>
       </c>
       <c r="L24">
         <v>1.582636754105808</v>
@@ -2750,66 +2735,55 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="C25">
+        <v>27.783995927455049</v>
+      </c>
+      <c r="D25">
+        <v>1.4211360885479329</v>
+      </c>
+      <c r="E25">
+        <v>45.040554511683929</v>
+      </c>
+      <c r="F25">
+        <v>11.155024948749331</v>
+      </c>
+      <c r="G25">
+        <v>8.4076277084985733</v>
+      </c>
+      <c r="H25">
+        <v>73.033806574690601</v>
       </c>
       <c r="I25">
-        <v>0.68069788797061526</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26">
-        <v>27.783995927455049</v>
-      </c>
-      <c r="D26">
-        <v>1.4211360885479329</v>
-      </c>
-      <c r="E26">
-        <v>45.529184571529598</v>
-      </c>
-      <c r="F26">
-        <v>11.22894830995021</v>
-      </c>
-      <c r="G26">
-        <v>9.8481302639020676</v>
-      </c>
-      <c r="H26">
-        <v>79.005223268064512</v>
-      </c>
-      <c r="I26">
-        <v>8.8693981370964448</v>
-      </c>
-      <c r="J26">
-        <v>92.565278852098075</v>
-      </c>
-      <c r="K26">
-        <v>12.63921279282822</v>
-      </c>
-      <c r="L26">
+        <v>4.7575979754221729</v>
+      </c>
+      <c r="J25">
+        <v>92.292991284117861</v>
+      </c>
+      <c r="K25">
+        <v>12.316034096785421</v>
+      </c>
+      <c r="L25">
         <v>5.6731871063661954</v>
       </c>
-      <c r="M26">
-        <v>26.343533197132992</v>
-      </c>
-      <c r="N26">
-        <v>21.749696443236989</v>
-      </c>
-      <c r="O26">
+      <c r="M25">
+        <v>25.319291863500641</v>
+      </c>
+      <c r="N25">
+        <v>21.497616058661158</v>
+      </c>
+      <c r="O25">
         <v>58.090059155712197</v>
       </c>
-      <c r="P26">
-        <v>37.407300515907288</v>
-      </c>
-      <c r="Q26">
+      <c r="P25">
+        <v>33.624555118465103</v>
+      </c>
+      <c r="Q25">
         <v>4.8139399782928427</v>
       </c>
-      <c r="R26">
-        <v>9.0768603326618731</v>
+      <c r="R25">
+        <v>8.9824177163572472</v>
       </c>
     </row>
   </sheetData>
@@ -2827,10 +2801,10 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2841,46 +2815,46 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2897,10 +2871,7 @@
         <v>2.5208038457583109E-2</v>
       </c>
       <c r="J3">
-        <v>0.36455375061053352</v>
-      </c>
-      <c r="P3">
-        <v>0.21039521681394241</v>
+        <v>0.3229779927377836</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2917,10 +2888,10 @@
         <v>1.3509714291082671</v>
       </c>
       <c r="E4">
-        <v>2.3134923669308369</v>
+        <v>2.310412681162485</v>
       </c>
       <c r="F4">
-        <v>6.5880517038394082</v>
+        <v>4.9990297390593597</v>
       </c>
       <c r="G4">
         <v>0.1444210536632366</v>
@@ -2932,19 +2903,19 @@
         <v>4.4031158918111917</v>
       </c>
       <c r="J4">
-        <v>10.866153360154231</v>
+        <v>10.410175794430231</v>
       </c>
       <c r="K4">
-        <v>2.8754669423906951</v>
+        <v>0.29952051250642148</v>
       </c>
       <c r="M4">
-        <v>3.6214785754000678</v>
+        <v>1.88543975060591</v>
       </c>
       <c r="N4">
         <v>7.0007011664362526</v>
       </c>
       <c r="O4">
-        <v>0.38818628666451771</v>
+        <v>7.4398724614394597E-3</v>
       </c>
       <c r="P4">
         <v>1.0141859083611651</v>
@@ -2976,7 +2947,7 @@
         <v>6.4209154561768303E-2</v>
       </c>
       <c r="J5">
-        <v>1.3446902143929449</v>
+        <v>1.3421212610211319</v>
       </c>
       <c r="M5">
         <v>2.6049187190182409E-2</v>
@@ -3038,9 +3009,6 @@
       <c r="H8">
         <v>47.814876033057857</v>
       </c>
-      <c r="L8">
-        <v>1.218719008264463</v>
-      </c>
       <c r="N8">
         <v>0.33619834710743812</v>
       </c>
@@ -3071,7 +3039,7 @@
         <v>2.6010652889605218E-3</v>
       </c>
       <c r="M9">
-        <v>0.23505541067359731</v>
+        <v>0.23431224916246571</v>
       </c>
       <c r="N9">
         <v>8.866329695305904E-3</v>
@@ -3178,7 +3146,7 @@
         <v>5.2516746786631459E-4</v>
       </c>
       <c r="E16">
-        <v>6.4764170821192804E-2</v>
+        <v>6.4485378214794636E-2</v>
       </c>
       <c r="F16">
         <v>7.6276745361462353E-2</v>
@@ -3190,7 +3158,7 @@
         <v>1.790269963760323E-3</v>
       </c>
       <c r="I16">
-        <v>5.7446675346864172E-2</v>
+        <v>5.6668649468543712E-2</v>
       </c>
       <c r="J16">
         <v>4.9843397189886833E-2</v>
@@ -3202,7 +3170,7 @@
         <v>4.2150159790728704E-3</v>
       </c>
       <c r="M16">
-        <v>0.28421305596137209</v>
+        <v>0.28166096899175641</v>
       </c>
       <c r="N16">
         <v>2.2188325517351799E-2</v>
@@ -3214,7 +3182,7 @@
         <v>4.2888676542415698E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3222,19 +3190,16 @@
         <v>84</v>
       </c>
       <c r="F17">
-        <v>0.58240915977961416</v>
+        <v>0.56597279614325058</v>
       </c>
       <c r="I17">
-        <v>4.4663502926997237E-2</v>
+        <v>4.3171882174012847E-2</v>
       </c>
       <c r="J17">
         <v>0.70736931605618492</v>
       </c>
-      <c r="N17">
-        <v>0.16472681359044991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -3244,9 +3209,6 @@
       <c r="D18">
         <v>2.336623651249534E-2</v>
       </c>
-      <c r="F18">
-        <v>0.1242566046611997</v>
-      </c>
       <c r="I18">
         <v>4.018413633471777E-2</v>
       </c>
@@ -3254,18 +3216,51 @@
         <v>0.63581595952368286</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="C19">
+        <v>1.5162614562296779</v>
+      </c>
+      <c r="D19">
+        <v>1.6230763006015381</v>
+      </c>
+      <c r="E19">
+        <v>2.3798172610280459</v>
+      </c>
+      <c r="F19">
+        <v>6.0179723013280766</v>
+      </c>
+      <c r="G19">
+        <v>0.4550897839888659</v>
+      </c>
+      <c r="H19">
+        <v>50.516797253585139</v>
+      </c>
+      <c r="I19">
+        <v>4.6082528620200121</v>
       </c>
       <c r="J19">
-        <v>0.40139730639730647</v>
+        <v>17.089949222700159</v>
+      </c>
+      <c r="K19">
+        <v>0.31523695407395802</v>
+      </c>
+      <c r="L19">
+        <v>6.8160812680333914E-3</v>
+      </c>
+      <c r="M19">
+        <v>3.8606243581171902</v>
       </c>
       <c r="N19">
-        <v>0.30973829201101932</v>
+        <v>8.207966139488617</v>
+      </c>
+      <c r="O19">
+        <v>8.0558096151098282E-3</v>
+      </c>
+      <c r="P19">
+        <v>1.1528674843871809</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +3272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80BF3F6-442D-456F-8FCB-F415048ACB03}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
@@ -3286,124 +3283,124 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>13.06994226639066</v>
+        <v>14.37447415329768</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4.4877669016359228E-3</v>
+        <v>2.4373065829758189E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6">
-        <v>-0.88389165285035487</v>
+        <v>-1.406009511026878</v>
       </c>
       <c r="C6">
-        <v>0.37675470360558988</v>
+        <v>0.15972130054143011</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.9583278032485808</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7">
-        <v>-2.7287764717439309</v>
+        <v>-3.2720062584653959</v>
       </c>
       <c r="C7">
-        <v>6.3569777777342483E-3</v>
+        <v>1.0678721216315871E-3</v>
       </c>
       <c r="D7">
-        <v>3.814186666640549E-2</v>
+        <v>6.4072327297895193E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8">
-        <v>-1.79035814798523</v>
+        <v>-1.576294985830045</v>
       </c>
       <c r="C8">
-        <v>7.3396353902052902E-2</v>
+        <v>0.1149578366730712</v>
       </c>
       <c r="D8">
-        <v>0.44037812341231741</v>
+        <v>0.68974702003842725</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9">
-        <v>-3.1302591318426818</v>
+        <v>-3.421241634460348</v>
       </c>
       <c r="C9">
-        <v>1.746521632796573E-3</v>
+        <v>6.2335921641738692E-4</v>
       </c>
       <c r="D9">
-        <v>1.047912979677944E-2</v>
+        <v>3.7401552985043209E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10">
-        <v>-2.1890584114046541</v>
+        <v>-1.6587154362324239</v>
       </c>
       <c r="C10">
-        <v>2.8592594791201069E-2</v>
+        <v>9.7173147390435408E-2</v>
       </c>
       <c r="D10">
-        <v>0.1715555687472064</v>
+        <v>0.58303888434261242</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11">
-        <v>-0.45184389767727662</v>
+        <v>-2.8470732450153882E-2</v>
       </c>
       <c r="C11">
-        <v>0.65138144311842683</v>
+        <v>0.97728671068426054</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3418,7 +3415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEB1B91-8CC9-4BD3-8321-8DD1829250FB}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
@@ -3464,19 +3463,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9.5965805270444016E-3</v>
+        <v>0.1372197186059082</v>
       </c>
       <c r="D4">
-        <v>3.1988601756814672E-3</v>
+        <v>4.5739906201969403E-2</v>
       </c>
       <c r="E4">
-        <v>0.42556503735965839</v>
+        <v>2.4993528908759259</v>
       </c>
       <c r="F4">
         <v>9999</v>
       </c>
       <c r="G4">
-        <v>0.7298</v>
+        <v>7.22E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3487,10 +3486,10 @@
         <v>46</v>
       </c>
       <c r="C5">
-        <v>0.34576987102676032</v>
+        <v>0.84183217702931479</v>
       </c>
       <c r="D5">
-        <v>7.5167363266687012E-3</v>
+        <v>1.8300699500637278E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3524,16 +3523,16 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>1.0117658979776649</v>
+        <v>2.4529449340630709</v>
       </c>
       <c r="D9">
-        <v>0.1486804700543396</v>
+        <v>0.1342304094713952</v>
       </c>
       <c r="E9">
-        <v>2.6779218933757951</v>
+        <v>2.3773064270345539</v>
       </c>
       <c r="F9">
-        <v>1E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3544,10 +3543,10 @@
         <v>46</v>
       </c>
       <c r="C10">
-        <v>5.7932024856162636</v>
+        <v>15.82119237746616</v>
       </c>
       <c r="D10">
-        <v>0.85131952994566029</v>
+        <v>0.8657695905286048</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3558,7 +3557,7 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>6.8049683835939296</v>
+        <v>18.27413731152923</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3570,10 +3569,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAAD962-7412-49B1-99A9-CC05BB7B92CA}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DA442-F25B-4037-B4E4-DE10CB0F01A3}">
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
@@ -3582,153 +3583,495 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>9.6041976884580979E-3</v>
+        <v>0.65717156479322714</v>
       </c>
       <c r="D4">
-        <v>3.2013992294860332E-3</v>
+        <v>0.1942723217209287</v>
       </c>
       <c r="E4">
-        <v>0.37837572152491589</v>
+        <v>2.4111412200195099</v>
       </c>
       <c r="F4">
-        <v>9999</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="G4">
-        <v>0.76429999999999998</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.38920141060546398</v>
+        <v>2.7255623160385012</v>
       </c>
       <c r="D5">
-        <v>8.4609002305535645E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>0.80572767827907144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>3.382733880831728</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1.111196501236009</v>
-      </c>
-      <c r="D9">
-        <v>0.12980682862125939</v>
-      </c>
-      <c r="E9">
-        <v>2.2872753288089869</v>
-      </c>
-      <c r="F9">
-        <v>2.0000000000000001E-4</v>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>7.4491890581260023</v>
+        <v>0.79586809896583055</v>
       </c>
       <c r="D10">
-        <v>0.87019317137874042</v>
+        <v>0.1119191684149894</v>
+      </c>
+      <c r="E10">
+        <v>2.520472561382519</v>
+      </c>
+      <c r="F10">
+        <v>0.04</v>
+      </c>
+      <c r="G10">
+        <v>0.24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>6.3152292245489434</v>
+      </c>
+      <c r="D11">
+        <v>0.88808083158501061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <v>8.5603855593620128</v>
-      </c>
-      <c r="D11">
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>7.1110973235147741</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1.2232098793111179</v>
+      </c>
+      <c r="D16">
+        <v>0.1210409389860789</v>
+      </c>
+      <c r="E16">
+        <v>3.5804448161758109</v>
+      </c>
+      <c r="F16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>8.8825435092329137</v>
+      </c>
+      <c r="D17">
+        <v>0.87895906101392107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>10.105753388544031</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.80551831967456</v>
+      </c>
+      <c r="D22">
+        <v>0.10401613241671009</v>
+      </c>
+      <c r="E22">
+        <v>2.3218304744095359</v>
+      </c>
+      <c r="F22">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>6.9386488682332503</v>
+      </c>
+      <c r="D23">
+        <v>0.89598386758328996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>7.7441671879078102</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0.56905712396551611</v>
+      </c>
+      <c r="D28">
+        <v>5.6481982996225331E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.556442517722461</v>
+      </c>
+      <c r="F28">
+        <v>0.127</v>
+      </c>
+      <c r="G28">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>9.5059631529172197</v>
+      </c>
+      <c r="D29">
+        <v>0.94351801700377469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>10.075020276882739</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0.77229501641580123</v>
+      </c>
+      <c r="D34">
+        <v>5.5689298296663227E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.1230456618394919</v>
+      </c>
+      <c r="F34">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>13.095630061427659</v>
+      </c>
+      <c r="D35">
+        <v>0.94431070170333686</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>13.867925077843459</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DA442-F25B-4037-B4E4-DE10CB0F01A3}">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAAD962-7412-49B1-99A9-CC05BB7B92CA}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
@@ -3737,12 +4080,12 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
+      <c r="A2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3751,459 +4094,132 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0.17364791260138099</v>
+        <v>0.34445099328688739</v>
       </c>
       <c r="D4">
-        <v>0.11750119608959091</v>
+        <v>0.1148169977622958</v>
       </c>
       <c r="E4">
-        <v>1.33146011721416</v>
+        <v>1.5331366012635299</v>
       </c>
       <c r="F4">
-        <v>0.247</v>
+        <v>9999</v>
       </c>
       <c r="G4">
-        <v>1.482</v>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>3.4449519323410631</v>
+      </c>
+      <c r="D5">
+        <v>7.4890259398718753E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>1.3041916190828751</v>
-      </c>
-      <c r="D5">
-        <v>0.88249880391040925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1.4778395316842561</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
+      <c r="C9">
+        <v>2.0702743708962159</v>
+      </c>
+      <c r="D9">
+        <v>8.7067513329014579E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.4623591819439341</v>
+      </c>
+      <c r="F9">
+        <v>5.45E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>0.40201656702997379</v>
+        <v>21.707530825778829</v>
       </c>
       <c r="D10">
-        <v>0.13905592671097611</v>
-      </c>
-      <c r="E10">
-        <v>3.2303126538695439</v>
-      </c>
-      <c r="F10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G10">
-        <v>1.7999999999999999E-2</v>
+        <v>0.91293248667098537</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>2.4890257390311992</v>
+        <v>23.77780519667504</v>
       </c>
       <c r="D11">
-        <v>0.86094407328902389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>2.891042306061173</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0.64487812040287851</v>
-      </c>
-      <c r="D16">
-        <v>0.15888654936648139</v>
-      </c>
-      <c r="E16">
-        <v>4.9114067554347747</v>
-      </c>
-      <c r="F16">
-        <v>1E-3</v>
-      </c>
-      <c r="G16">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>3.4138551265218071</v>
-      </c>
-      <c r="D17">
-        <v>0.8411134506335185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>27</v>
-      </c>
-      <c r="C18">
-        <v>4.0587332469246862</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0.1599586102526496</v>
-      </c>
-      <c r="D22">
-        <v>6.2993043053325856E-2</v>
-      </c>
-      <c r="E22">
-        <v>1.344558705489117</v>
-      </c>
-      <c r="F22">
-        <v>0.22</v>
-      </c>
-      <c r="G22">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>2.379347359094456</v>
-      </c>
-      <c r="D23">
-        <v>0.93700695694667402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>21</v>
-      </c>
-      <c r="C24">
-        <v>2.5393059693471058</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0.2011410283297263</v>
-      </c>
-      <c r="D28">
-        <v>5.7381681560843868E-2</v>
-      </c>
-      <c r="E28">
-        <v>1.582744246952847</v>
-      </c>
-      <c r="F28">
-        <v>0.127</v>
-      </c>
-      <c r="G28">
-        <v>0.76200000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <v>26</v>
-      </c>
-      <c r="C29">
-        <v>3.304176746585064</v>
-      </c>
-      <c r="D29">
-        <v>0.942618318439156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>3.5053177749147908</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0.3276981548141068</v>
-      </c>
-      <c r="D34">
-        <v>6.8033620748473564E-2</v>
-      </c>
-      <c r="E34">
-        <v>2.6280028995381142</v>
-      </c>
-      <c r="F34">
-        <v>2E-3</v>
-      </c>
-      <c r="G34">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35">
-        <v>36</v>
-      </c>
-      <c r="C35">
-        <v>4.4890108665333877</v>
-      </c>
-      <c r="D35">
-        <v>0.93196637925152637</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36">
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <v>4.8167090213474948</v>
-      </c>
-      <c r="D36">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4211,7 +4227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B191C15-D3B0-404A-BD3A-815560A67DCB}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:G36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
@@ -4220,7 +4238,7 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4229,7 +4247,9 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4257,19 +4277,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.17454751575898581</v>
+        <v>0.32978167616577558</v>
       </c>
       <c r="D4">
-        <v>8.9860135177550857E-2</v>
+        <v>7.4817609340171135E-2</v>
       </c>
       <c r="E4">
-        <v>0.98732226387073851</v>
+        <v>0.80867956519159567</v>
       </c>
       <c r="F4">
-        <v>0.433</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="G4">
-        <v>2.5979999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4280,10 +4300,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1.7678879748409859</v>
+        <v>4.0780265801280944</v>
       </c>
       <c r="D5">
-        <v>0.91013986482244913</v>
+        <v>0.92518239065982888</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4294,7 +4314,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>1.9424354905999719</v>
+        <v>4.407808256293869</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4306,7 +4326,9 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4334,19 +4356,19 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.46108308072697368</v>
+        <v>0.76247550222601235</v>
       </c>
       <c r="D10">
-        <v>0.12608259440250091</v>
+        <v>9.041233039184883E-2</v>
       </c>
       <c r="E10">
-        <v>2.8854579070043358</v>
+        <v>1.987984960939462</v>
       </c>
       <c r="F10">
-        <v>5.0000000000000001E-3</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G10">
-        <v>0.03</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4357,10 +4379,10 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>3.19590924967377</v>
+        <v>7.6708377297350312</v>
       </c>
       <c r="D11">
-        <v>0.87391740559749909</v>
+        <v>0.90958766960815107</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4371,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>3.6569923304007439</v>
+        <v>8.4333132319610442</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4383,7 +4405,9 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
@@ -4411,19 +4435,19 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.68018648367602308</v>
+        <v>1.197132952900938</v>
       </c>
       <c r="D16">
-        <v>0.1334070194991635</v>
+        <v>8.0343912400587164E-2</v>
       </c>
       <c r="E16">
-        <v>4.0025508918542458</v>
+        <v>2.2714379327037908</v>
       </c>
       <c r="F16">
-        <v>1E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G16">
-        <v>6.0000000000000001E-3</v>
+        <v>5.3999999999999992E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4434,10 +4458,10 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>4.4183944323025983</v>
+        <v>13.702974810486859</v>
       </c>
       <c r="D17">
-        <v>0.86659298050083622</v>
+        <v>0.91965608759941275</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4448,7 +4472,7 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>5.0985809159786228</v>
+        <v>14.900107763387799</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4460,7 +4484,9 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -4488,19 +4514,19 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.2107903439899626</v>
+        <v>0.2926135996582192</v>
       </c>
       <c r="D22">
-        <v>6.5026937733518309E-2</v>
+        <v>3.5266676859416722E-2</v>
       </c>
       <c r="E22">
-        <v>1.3909906147645701</v>
+        <v>0.73111762625986498</v>
       </c>
       <c r="F22">
-        <v>0.193</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="G22">
-        <v>1.1579999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4511,10 +4537,10 @@
         <v>20</v>
       </c>
       <c r="C23">
-        <v>3.030794625823404</v>
+        <v>8.0045560152919641</v>
       </c>
       <c r="D23">
-        <v>0.93497306226648169</v>
+        <v>0.96473332314058324</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4525,7 +4551,7 @@
         <v>21</v>
       </c>
       <c r="C24">
-        <v>3.241584969813367</v>
+        <v>8.2971696149501835</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4537,7 +4563,9 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
@@ -4565,19 +4593,19 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0.2323222773899625</v>
+        <v>0.45713318274001691</v>
       </c>
       <c r="D28">
-        <v>5.17928859814017E-2</v>
+        <v>3.1539855242309102E-2</v>
       </c>
       <c r="E28">
-        <v>1.4201697241115949</v>
+        <v>0.84674236801475167</v>
       </c>
       <c r="F28">
-        <v>0.153</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="G28">
-        <v>0.91799999999999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4588,10 +4616,10 @@
         <v>26</v>
       </c>
       <c r="C29">
-        <v>4.2532798084522323</v>
+        <v>14.0366930960438</v>
       </c>
       <c r="D29">
-        <v>0.94820711401859814</v>
+        <v>0.96846014475769082</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4602,7 +4630,7 @@
         <v>27</v>
       </c>
       <c r="C30">
-        <v>4.4856020858421957</v>
+        <v>14.493826278783811</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -4614,7 +4642,9 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -4642,19 +4672,19 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0.34562616365980131</v>
+        <v>0.79012964187951962</v>
       </c>
       <c r="D34">
-        <v>5.7346994496242983E-2</v>
+        <v>4.2896055736179571E-2</v>
       </c>
       <c r="E34">
-        <v>2.190086691296842</v>
+        <v>1.6134694833906129</v>
       </c>
       <c r="F34">
-        <v>1.7999999999999999E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G34">
-        <v>0.108</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4665,10 +4695,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>5.6813010832850166</v>
+        <v>17.629504245650729</v>
       </c>
       <c r="D35">
-        <v>0.94265300550375697</v>
+        <v>0.95710394426382062</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4679,7 +4709,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>6.0269272469448181</v>
+        <v>18.419633887530249</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -4692,18 +4722,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7DB178-BA13-433B-9EF2-B8B45D56E03B}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -4788,7 +4820,7 @@
         <v>51</v>
       </c>
       <c r="E3">
-        <v>876.8867387983214</v>
+        <v>292.29557959944049</v>
       </c>
       <c r="G3">
         <v>292.29557959944049</v>
@@ -4809,7 +4841,7 @@
         <v>6430.5027511876906</v>
       </c>
       <c r="W3">
-        <v>3507.5469551932861</v>
+        <v>2922.955795994405</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -4820,70 +4852,70 @@
         <v>52</v>
       </c>
       <c r="C4">
+        <v>2630.6602163949642</v>
+      </c>
+      <c r="D4">
+        <v>6138.2071715882494</v>
+      </c>
+      <c r="E4">
         <v>2922.955795994405</v>
       </c>
-      <c r="D4">
-        <v>11107.232024778739</v>
-      </c>
-      <c r="E4">
-        <v>7891.9806491848922</v>
-      </c>
       <c r="F4">
-        <v>8184.2762287843334</v>
+        <v>7307.3894899860124</v>
       </c>
       <c r="G4">
-        <v>9645.7541267815359</v>
+        <v>8476.5718083837728</v>
       </c>
       <c r="H4">
-        <v>14322.483400372579</v>
+        <v>11984.11876357706</v>
       </c>
       <c r="I4">
-        <v>4969.0248531904881</v>
+        <v>4384.4336939916066</v>
       </c>
       <c r="J4">
-        <v>7891.9806491848922</v>
+        <v>6722.7983307871309</v>
       </c>
       <c r="K4">
-        <v>12568.709922775941</v>
+        <v>11691.82318397762</v>
       </c>
       <c r="L4">
-        <v>32152.513755938449</v>
+        <v>28352.67122114572</v>
       </c>
       <c r="M4">
-        <v>3799.8425347927259</v>
+        <v>3507.5469551932861</v>
       </c>
       <c r="N4">
-        <v>13737.8922411737</v>
+        <v>6430.5027511876906</v>
       </c>
       <c r="O4">
-        <v>1169.1823183977619</v>
+        <v>584.59115919888097</v>
       </c>
       <c r="P4">
         <v>2046.0690571960829</v>
       </c>
       <c r="Q4">
-        <v>40044.49440512334</v>
+        <v>24260.533106753559</v>
       </c>
       <c r="R4">
-        <v>7015.0939103865712</v>
+        <v>4092.1381143921658</v>
       </c>
       <c r="S4">
-        <v>13445.59666157426</v>
+        <v>7891.9806491848922</v>
       </c>
       <c r="T4">
-        <v>5261.3204327899284</v>
+        <v>4092.1381143921658</v>
       </c>
       <c r="U4">
-        <v>30691.03585794125</v>
+        <v>23383.64636795524</v>
       </c>
       <c r="V4">
-        <v>7891.9806491848922</v>
+        <v>4676.7292735910478</v>
       </c>
       <c r="W4">
-        <v>8184.2762287843334</v>
+        <v>3215.2513755938448</v>
       </c>
       <c r="X4">
-        <v>1461.477897997202</v>
+        <v>876.8867387983214</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -4937,7 +4969,7 @@
         <v>584.59115919888097</v>
       </c>
       <c r="F7">
-        <v>27768.080061946839</v>
+        <v>26891.19332314852</v>
       </c>
       <c r="G7">
         <v>292.29557959944049</v>
@@ -4979,7 +5011,7 @@
         <v>1169.1823183977619</v>
       </c>
       <c r="V7">
-        <v>60505.184977084173</v>
+        <v>59920.593817885303</v>
       </c>
       <c r="W7">
         <v>1169.1823183977619</v>
@@ -5129,7 +5161,7 @@
         <v>1169.1823183977619</v>
       </c>
       <c r="E13">
-        <v>4676.7292735910478</v>
+        <v>4384.4336939916066</v>
       </c>
       <c r="G13">
         <v>3215.2513755938448</v>
@@ -5409,7 +5441,7 @@
         <v>76</v>
       </c>
       <c r="N24">
-        <v>584.59115919888097</v>
+        <v>292.29557959944049</v>
       </c>
       <c r="O24">
         <v>292.29557959944049</v>
@@ -5574,7 +5606,7 @@
         <v>292.29557959944049</v>
       </c>
       <c r="E30">
-        <v>19876.099412761949</v>
+        <v>19583.80383316251</v>
       </c>
       <c r="F30">
         <v>584.59115919888097</v>
@@ -5586,7 +5618,7 @@
         <v>1169.1823183977619</v>
       </c>
       <c r="I30">
-        <v>9061.1629675826534</v>
+        <v>8184.2762287843334</v>
       </c>
       <c r="J30">
         <v>1753.773477596643</v>
@@ -5607,7 +5639,7 @@
         <v>2338.3646367955239</v>
       </c>
       <c r="Q30">
-        <v>56705.342442291447</v>
+        <v>54951.568964694809</v>
       </c>
       <c r="R30">
         <v>5261.3204327899284</v>
@@ -5625,7 +5657,7 @@
         <v>12568.709922775941</v>
       </c>
       <c r="W30">
-        <v>35952.356290731179</v>
+        <v>35660.060711131737</v>
       </c>
       <c r="X30">
         <v>5553.6160123893687</v>
@@ -5644,9 +5676,6 @@
       <c r="D31">
         <v>876.8867387983214</v>
       </c>
-      <c r="E31">
-        <v>292.29557959944049</v>
-      </c>
       <c r="F31">
         <v>292.29557959944049</v>
       </c>
@@ -5662,17 +5691,14 @@
       <c r="K31">
         <v>292.29557959944049</v>
       </c>
-      <c r="M31">
-        <v>292.29557959944049</v>
-      </c>
       <c r="N31">
-        <v>1169.1823183977619</v>
+        <v>584.59115919888097</v>
       </c>
       <c r="V31">
-        <v>1169.1823183977619</v>
+        <v>292.29557959944049</v>
       </c>
       <c r="W31">
-        <v>3799.8425347927259</v>
+        <v>2046.0690571960829</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -5705,88 +5731,71 @@
       <c r="A33" t="s">
         <v>86</v>
       </c>
-      <c r="B33" t="s">
-        <v>86</v>
+      <c r="C33">
+        <v>7599.6850695854528</v>
+      </c>
+      <c r="D33">
+        <v>14322.483400372579</v>
+      </c>
+      <c r="E33">
+        <v>34198.582813134533</v>
+      </c>
+      <c r="F33">
+        <v>47351.883895109357</v>
+      </c>
+      <c r="G33">
+        <v>18122.325935165311</v>
+      </c>
+      <c r="H33">
+        <v>30398.740278341811</v>
+      </c>
+      <c r="I33">
+        <v>30106.444698742369</v>
+      </c>
+      <c r="J33">
+        <v>14030.187820773141</v>
+      </c>
+      <c r="K33">
+        <v>30106.444698742369</v>
+      </c>
+      <c r="L33">
+        <v>82427.353447042216</v>
+      </c>
+      <c r="M33">
+        <v>7015.0939103865712</v>
       </c>
       <c r="N33">
-        <v>584.59115919888097</v>
+        <v>17245.439196366991</v>
+      </c>
+      <c r="O33">
+        <v>4384.4336939916084</v>
+      </c>
+      <c r="P33">
+        <v>6722.7983307871309</v>
       </c>
       <c r="Q33">
-        <v>584.59115919888097</v>
+        <v>92073.107573823741</v>
+      </c>
+      <c r="R33">
+        <v>16953.143616767549</v>
+      </c>
+      <c r="S33">
+        <v>12568.709922775941</v>
+      </c>
+      <c r="T33">
+        <v>13737.8922411737</v>
       </c>
       <c r="U33">
-        <v>876.8867387983214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="A34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34">
-        <v>7891.9806491848931</v>
-      </c>
-      <c r="D34">
-        <v>19291.508253563072</v>
-      </c>
-      <c r="E34">
-        <v>40629.085564322217</v>
-      </c>
-      <c r="F34">
-        <v>49105.657372706002</v>
-      </c>
-      <c r="G34">
-        <v>19291.508253563072</v>
-      </c>
-      <c r="H34">
-        <v>32737.10491513733</v>
-      </c>
-      <c r="I34">
-        <v>31567.922596739569</v>
-      </c>
-      <c r="J34">
-        <v>15199.3701391709</v>
-      </c>
-      <c r="K34">
-        <v>30983.331437540692</v>
-      </c>
-      <c r="L34">
-        <v>86227.195981834942</v>
-      </c>
-      <c r="M34">
-        <v>7599.6850695854519</v>
-      </c>
-      <c r="N34">
-        <v>26014.306584350201</v>
-      </c>
-      <c r="O34">
-        <v>4969.0248531904881</v>
-      </c>
-      <c r="P34">
-        <v>6722.7983307871309</v>
-      </c>
-      <c r="Q34">
-        <v>110195.4335089891</v>
-      </c>
-      <c r="R34">
-        <v>19876.099412761949</v>
-      </c>
-      <c r="S34">
-        <v>18122.325935165311</v>
-      </c>
-      <c r="T34">
-        <v>14907.07455957146</v>
-      </c>
-      <c r="U34">
-        <v>101426.5661210059</v>
-      </c>
-      <c r="V34">
-        <v>97919.019165812555</v>
-      </c>
-      <c r="W34">
-        <v>86227.195981834942</v>
-      </c>
-      <c r="X34">
-        <v>14322.483400372579</v>
+        <v>93242.28989222151</v>
+      </c>
+      <c r="V33">
+        <v>93242.28989222151</v>
+      </c>
+      <c r="W33">
+        <v>78627.510912249491</v>
+      </c>
+      <c r="X33">
+        <v>13737.8922411737</v>
       </c>
     </row>
   </sheetData>
@@ -5796,7 +5805,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B69641D-B9DA-4D44-B882-55FA4C6BD240}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5804,10 +5813,10 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -5818,52 +5827,52 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -5871,7 +5880,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M3">
         <v>292.29557959944049</v>
@@ -5903,7 +5912,7 @@
         <v>292.29557959944049</v>
       </c>
       <c r="P4">
-        <v>1461.477897997202</v>
+        <v>1169.1823183977619</v>
       </c>
       <c r="Q4">
         <v>292.29557959944049</v>
@@ -5923,46 +5932,46 @@
         <v>1169.1823183977619</v>
       </c>
       <c r="E5">
-        <v>3799.8425347927259</v>
+        <v>3507.5469551932861</v>
       </c>
       <c r="F5">
-        <v>14322.483400372579</v>
+        <v>13445.59666157426</v>
       </c>
       <c r="G5">
-        <v>4969.0248531904881</v>
+        <v>2922.955795994405</v>
       </c>
       <c r="H5">
-        <v>13445.59666157426</v>
+        <v>11399.52760437818</v>
       </c>
       <c r="I5">
-        <v>5845.9115919888091</v>
+        <v>4092.1381143921658</v>
       </c>
       <c r="J5">
-        <v>5845.9115919888091</v>
+        <v>4676.7292735910478</v>
       </c>
       <c r="K5">
-        <v>32152.513755938449</v>
+        <v>27768.080061946839</v>
       </c>
       <c r="L5">
         <v>292.29557959944049</v>
       </c>
       <c r="M5">
-        <v>19876.099412761949</v>
+        <v>16368.55245756867</v>
       </c>
       <c r="N5">
-        <v>1753.773477596643</v>
+        <v>1461.477897997202</v>
       </c>
       <c r="O5">
         <v>7015.0939103865712</v>
       </c>
       <c r="P5">
-        <v>8768.8673879832131</v>
+        <v>6138.2071715882494</v>
       </c>
       <c r="Q5">
         <v>2046.0690571960829</v>
       </c>
       <c r="R5">
-        <v>44428.92809911495</v>
+        <v>43259.745780717189</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -6046,7 +6055,7 @@
         <v>876.8867387983214</v>
       </c>
       <c r="P8">
-        <v>2630.6602163949642</v>
+        <v>2338.3646367955239</v>
       </c>
       <c r="Q8">
         <v>292.29557959944049</v>
@@ -6225,7 +6234,7 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15">
         <v>292.29557959944049</v>
@@ -6362,7 +6371,7 @@
         <v>21922.168469958029</v>
       </c>
       <c r="G22">
-        <v>27768.080061946839</v>
+        <v>27475.784482347401</v>
       </c>
       <c r="H22">
         <v>584.59115919888097</v>
@@ -6380,7 +6389,7 @@
         <v>4092.1381143921658</v>
       </c>
       <c r="M22">
-        <v>16953.143616767549</v>
+        <v>16660.848037168111</v>
       </c>
       <c r="N22">
         <v>1169.1823183977619</v>
@@ -6406,16 +6415,16 @@
         <v>292.29557959944049</v>
       </c>
       <c r="E23">
-        <v>2046.0690571960829</v>
+        <v>1461.477897997202</v>
       </c>
       <c r="F23">
         <v>1461.477897997202</v>
       </c>
       <c r="G23">
-        <v>6138.2071715882494</v>
+        <v>4092.1381143921658</v>
       </c>
       <c r="J23">
-        <v>1753.773477596643</v>
+        <v>1169.1823183977619</v>
       </c>
       <c r="M23">
         <v>876.8867387983214</v>
@@ -6438,7 +6447,7 @@
         <v>292.29557959944049</v>
       </c>
       <c r="F24">
-        <v>2922.955795994405</v>
+        <v>2338.3646367955239</v>
       </c>
       <c r="G24">
         <v>292.29557959944049</v>
@@ -6447,10 +6456,10 @@
         <v>584.59115919888097</v>
       </c>
       <c r="I24">
-        <v>2630.6602163949642</v>
+        <v>2338.3646367955239</v>
       </c>
       <c r="K24">
-        <v>7599.6850695854519</v>
+        <v>7307.3894899860124</v>
       </c>
       <c r="L24">
         <v>292.29557959944049</v>
@@ -6466,64 +6475,53 @@
       <c r="A25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
-        <v>86</v>
+      <c r="C25">
+        <v>24552.828686353001</v>
+      </c>
+      <c r="D25">
+        <v>11399.52760437818</v>
+      </c>
+      <c r="E25">
+        <v>17537.73477596643</v>
+      </c>
+      <c r="F25">
+        <v>60505.184977084173</v>
+      </c>
+      <c r="G25">
+        <v>47644.179474708799</v>
+      </c>
+      <c r="H25">
+        <v>14614.778979972019</v>
       </c>
       <c r="I25">
-        <v>292.29557959944049</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26">
-        <v>24552.828686353001</v>
-      </c>
-      <c r="D26">
+        <v>11984.11876357706</v>
+      </c>
+      <c r="J25">
+        <v>15783.96129836979</v>
+      </c>
+      <c r="K25">
+        <v>43552.041360316631</v>
+      </c>
+      <c r="L25">
+        <v>11107.232024778739</v>
+      </c>
+      <c r="M25">
+        <v>45013.519258313827</v>
+      </c>
+      <c r="N25">
+        <v>9061.1629675826553</v>
+      </c>
+      <c r="O25">
+        <v>9938.0497063809762</v>
+      </c>
+      <c r="P25">
+        <v>30398.740278341811</v>
+      </c>
+      <c r="Q25">
         <v>11399.52760437818</v>
       </c>
-      <c r="E26">
-        <v>18414.621514764749</v>
-      </c>
-      <c r="F26">
-        <v>61966.662875081383</v>
-      </c>
-      <c r="G26">
-        <v>52028.613168700402</v>
-      </c>
-      <c r="H26">
-        <v>16660.848037168111</v>
-      </c>
-      <c r="I26">
-        <v>14322.483400372579</v>
-      </c>
-      <c r="J26">
-        <v>17537.73477596643</v>
-      </c>
-      <c r="K26">
-        <v>48228.770633907683</v>
-      </c>
-      <c r="L26">
-        <v>11107.232024778739</v>
-      </c>
-      <c r="M26">
-        <v>48813.36179310656</v>
-      </c>
-      <c r="N26">
-        <v>9353.4585471820956</v>
-      </c>
-      <c r="O26">
-        <v>9938.0497063809762</v>
-      </c>
-      <c r="P26">
-        <v>33613.991653935649</v>
-      </c>
-      <c r="Q26">
-        <v>11399.52760437818</v>
-      </c>
-      <c r="R26">
-        <v>48521.066213507118</v>
+      <c r="R25">
+        <v>47351.883895109357</v>
       </c>
     </row>
   </sheetData>
@@ -6535,16 +6533,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DA1E16-6C64-462D-A4DB-29EE0A455F51}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -6555,46 +6555,46 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -6611,10 +6611,7 @@
         <v>584.59115919888097</v>
       </c>
       <c r="J3">
-        <v>876.8867387983214</v>
-      </c>
-      <c r="P3">
-        <v>876.8867387983214</v>
+        <v>584.59115919888097</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6631,10 +6628,10 @@
         <v>7015.0939103865712</v>
       </c>
       <c r="E4">
+        <v>2046.0690571960829</v>
+      </c>
+      <c r="F4">
         <v>2630.6602163949642</v>
-      </c>
-      <c r="F4">
-        <v>4676.7292735910478</v>
       </c>
       <c r="G4">
         <v>292.29557959944049</v>
@@ -6646,19 +6643,19 @@
         <v>2338.3646367955239</v>
       </c>
       <c r="J4">
-        <v>10814.936445179301</v>
+        <v>9061.1629675826534</v>
       </c>
       <c r="K4">
-        <v>1461.477897997202</v>
+        <v>876.8867387983214</v>
       </c>
       <c r="M4">
-        <v>19291.508253563072</v>
+        <v>10230.34528598042</v>
       </c>
       <c r="N4">
         <v>1169.1823183977619</v>
       </c>
       <c r="O4">
-        <v>584.59115919888097</v>
+        <v>292.29557959944049</v>
       </c>
       <c r="P4">
         <v>876.8867387983214</v>
@@ -6690,7 +6687,7 @@
         <v>292.29557959944049</v>
       </c>
       <c r="J5">
-        <v>26306.602163949639</v>
+        <v>25722.011004750759</v>
       </c>
       <c r="M5">
         <v>1753.773477596643</v>
@@ -6752,9 +6749,6 @@
       <c r="H8">
         <v>292.29557959944049</v>
       </c>
-      <c r="L8">
-        <v>292.29557959944049</v>
-      </c>
       <c r="N8">
         <v>292.29557959944049</v>
       </c>
@@ -6785,7 +6779,7 @@
         <v>292.29557959944049</v>
       </c>
       <c r="M9">
-        <v>18999.21267396363</v>
+        <v>18706.917094364191</v>
       </c>
       <c r="N9">
         <v>876.8867387983214</v>
@@ -6892,7 +6886,7 @@
         <v>292.29557959944049</v>
       </c>
       <c r="E16">
-        <v>19876.099412761949</v>
+        <v>19583.80383316251</v>
       </c>
       <c r="F16">
         <v>4676.7292735910478</v>
@@ -6904,7 +6898,7 @@
         <v>876.8867387983214</v>
       </c>
       <c r="I16">
-        <v>6138.2071715882494</v>
+        <v>5845.9115919888091</v>
       </c>
       <c r="J16">
         <v>3507.5469551932861</v>
@@ -6916,7 +6910,7 @@
         <v>1169.1823183977619</v>
       </c>
       <c r="M16">
-        <v>39752.198825523912</v>
+        <v>39167.607666325021</v>
       </c>
       <c r="N16">
         <v>2046.0690571960829</v>
@@ -6928,7 +6922,7 @@
         <v>1169.1823183977619</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -6936,19 +6930,16 @@
         <v>84</v>
       </c>
       <c r="F17">
-        <v>1169.1823183977619</v>
+        <v>876.8867387983214</v>
       </c>
       <c r="I17">
-        <v>1169.1823183977619</v>
+        <v>876.8867387983214</v>
       </c>
       <c r="J17">
         <v>584.59115919888097</v>
       </c>
-      <c r="N17">
-        <v>584.59115919888097</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -6958,9 +6949,6 @@
       <c r="D18">
         <v>292.29557959944049</v>
       </c>
-      <c r="F18">
-        <v>292.29557959944049</v>
-      </c>
       <c r="I18">
         <v>876.8867387983214</v>
       </c>
@@ -6968,18 +6956,51 @@
         <v>292.29557959944049</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>86</v>
       </c>
-      <c r="B19" t="s">
-        <v>86</v>
+      <c r="C19">
+        <v>2046.0690571960829</v>
+      </c>
+      <c r="D19">
+        <v>9353.4585471820956</v>
+      </c>
+      <c r="E19">
+        <v>22506.75962915691</v>
+      </c>
+      <c r="F19">
+        <v>14322.483400372579</v>
+      </c>
+      <c r="G19">
+        <v>2630.6602163949642</v>
+      </c>
+      <c r="H19">
+        <v>12568.709922775941</v>
+      </c>
+      <c r="I19">
+        <v>10522.64086557986</v>
       </c>
       <c r="J19">
-        <v>876.8867387983214</v>
+        <v>45013.519258313827</v>
+      </c>
+      <c r="K19">
+        <v>4676.7292735910478</v>
+      </c>
+      <c r="L19">
+        <v>1461.4778979972029</v>
+      </c>
+      <c r="M19">
+        <v>70735.530263064589</v>
       </c>
       <c r="N19">
-        <v>876.8867387983214</v>
+        <v>6722.7983307871309</v>
+      </c>
+      <c r="O19">
+        <v>584.59115919888097</v>
+      </c>
+      <c r="P19">
+        <v>3215.2513755938448</v>
       </c>
     </row>
   </sheetData>
